--- a/Creación de escenarios.xlsx
+++ b/Creación de escenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emili\PycharmProjects\TesisUY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E1C4A-114A-4923-8FA3-F19E9CF197F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCCCA69-1C22-4325-8934-44BB8B402D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1275" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos CO2 vs IMESI 2023" sheetId="9" r:id="rId1"/>
@@ -41,6 +41,40 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Emiliano RO</author>
+  </authors>
+  <commentList>
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{9FBC5FB3-A728-4A24-A225-6D9D5324483D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Emiliano RO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Numero de escalones para definir el tamaño de los pasos. No es el numero final de escalones </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,9 +491,6 @@
     <t xml:space="preserve">Elasticidades </t>
   </si>
   <si>
-    <t>-1,1, -1,6 y -2,1</t>
-  </si>
-  <si>
     <t>Escenario 8</t>
   </si>
   <si>
@@ -479,9 +510,6 @@
   </si>
   <si>
     <t xml:space="preserve">Igual a Escenario 1 pero con Elasticidad diferenciada por precio </t>
-  </si>
-  <si>
-    <t>-1,1, -1,6 y -2,1. Los vehículos situados en el 25 % más barato de cada categoría tienen una elasticidad diferenciada.</t>
   </si>
   <si>
     <t>CO2: Mediana ponderada por ventas  de Automóviles y SUV gasolina (0 - 1.000 c.c.)</t>
@@ -567,6 +595,12 @@
   <si>
     <t>IMESI sobre BEV de 10 %</t>
   </si>
+  <si>
+    <t>-1,37, -1,87, -2,37</t>
+  </si>
+  <si>
+    <t>-1,37, -1,87, -2,37. Los vehículos situados en el 25 % más barato de cada categoría tienen una elasticidad diferenciada.</t>
+  </si>
 </sst>
 </file>
 
@@ -575,7 +609,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,6 +689,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -804,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -866,7 +913,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -937,6 +983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -954,6 +1001,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3222,44 +3272,62 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Escenario 1'!$B$36:$B$47</c:f>
+              <c:f>'Escenario 1'!$B$42:$B$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>133.4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>133.4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>167.8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>167.8</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>202.2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>202.2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>236.6</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>236.6</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>271</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
                   <c:v>271</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
@@ -3267,44 +3335,62 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Escenario 1'!$C$36:$C$47</c:f>
+              <c:f>'Escenario 1'!$C$42:$C$59</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.184</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.23</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="7">
                   <c:v>0.23</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>0.27600000000000002</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
                   <c:v>0.27600000000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>0.32200000000000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>0.32200000000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
                   <c:v>0.36799999999999999</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>0.36799999999999999</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>0.41399999999999998</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>0.41399999999999998</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
                   <c:v>0.46</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="17">
                   <c:v>0.46</c:v>
                 </c:pt>
               </c:numCache>
@@ -5285,7 +5371,7 @@
             <c:numRef>
               <c:f>'Escenario 3'!$E$2:$E$521</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="520"/>
                 <c:pt idx="0">
                   <c:v>0.23</c:v>
@@ -7076,7 +7162,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -16641,13 +16727,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17419,7 +17505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB6EEFE-6229-42A2-9381-BDA1C74EFD24}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -17439,37 +17525,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -17495,7 +17581,7 @@
       <c r="G2" s="22">
         <v>64</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="22" t="s">
@@ -17530,7 +17616,7 @@
       <c r="G3" s="22">
         <v>131</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="22" t="s">
@@ -17565,7 +17651,7 @@
       <c r="G4" s="22">
         <v>306</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="22" t="s">
@@ -17600,7 +17686,7 @@
       <c r="G5" s="22">
         <v>189</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="22" t="s">
@@ -17635,7 +17721,7 @@
       <c r="G6" s="22">
         <v>201</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="22" t="s">
@@ -17670,7 +17756,7 @@
       <c r="G7" s="22">
         <v>162</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="22" t="s">
@@ -17705,7 +17791,7 @@
       <c r="G8" s="22">
         <v>212</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>1</v>
       </c>
       <c r="I8" s="22" t="s">
@@ -17722,28 +17808,28 @@
       <c r="A9" s="6">
         <v>34.5</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>137</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <v>159</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="26">
         <v>173</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <v>36</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <v>128</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <v>217</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="H9" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="I9" s="27" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="1">
@@ -17775,7 +17861,7 @@
       <c r="G10" s="22">
         <v>251</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="22" t="s">
@@ -17810,7 +17896,7 @@
       <c r="G11" s="22">
         <v>204</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="25" t="s">
         <v>6</v>
       </c>
       <c r="I11" s="22" t="s">
@@ -17845,7 +17931,7 @@
       <c r="G12" s="22">
         <v>271</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="25" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="22" t="s">
@@ -17880,7 +17966,7 @@
       <c r="G13" s="22">
         <v>122</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="22" t="s">
@@ -17915,7 +18001,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -17951,12 +18037,12 @@
       <c r="A3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <f>'Datos CO2 vs IMESI 2023'!K7</f>
         <v>133.20363483685219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J7</f>
@@ -17981,19 +18067,19 @@
       <c r="A4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <f>'Datos CO2 vs IMESI 2023'!K12</f>
         <v>258.08333333333331</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J12+0.2</f>
         <v>0.66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>17</v>
@@ -18090,7 +18176,7 @@
     <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -18120,22 +18206,22 @@
       <c r="A21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="29">
         <f>'Datos CO2 vs IMESI 2023'!K4</f>
         <v>177.8608228100492</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D21" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J4</f>
         <v>0.06</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="G21" s="12">
         <f>(D22-D21)/(B22-B21)</f>
@@ -18150,22 +18236,22 @@
       <c r="A22" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="29">
         <f>'Datos CO2 vs IMESI 2023'!G4</f>
         <v>306</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" s="4">
         <f>D21*3</f>
         <v>0.18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G22" s="12">
         <f>(D22-D21)/(B22-B21)</f>
@@ -18280,7 +18366,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -18316,12 +18402,12 @@
       <c r="A3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <f>'Datos CO2 vs IMESI 2023'!K7</f>
         <v>133.20363483685219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J7</f>
@@ -18331,7 +18417,7 @@
         <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -18346,22 +18432,22 @@
       <c r="A4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <f>'Datos CO2 vs IMESI 2023'!K12</f>
         <v>258.08333333333331</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J12+0.2</f>
         <v>0.66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G4" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -18455,7 +18541,7 @@
     <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -18485,22 +18571,22 @@
       <c r="A21" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="29">
         <f>'Datos CO2 vs IMESI 2023'!K4</f>
         <v>177.8608228100492</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D21" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J4</f>
         <v>0.06</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G21" s="12">
         <f>(D22-D21)/(B22-B21)</f>
@@ -18515,22 +18601,22 @@
       <c r="A22" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="29">
         <f>'Datos CO2 vs IMESI 2023'!G4</f>
         <v>306</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" s="4">
         <f>D21*3</f>
         <v>0.18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G22" s="12">
         <f>(D22-D21)/(B22-B21)</f>
@@ -18645,7 +18731,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -18681,12 +18767,12 @@
       <c r="A3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <f>'Datos CO2 vs IMESI 2023'!K7</f>
         <v>133.20363483685219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J7</f>
@@ -18696,7 +18782,7 @@
         <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G3" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -18711,22 +18797,22 @@
       <c r="A4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <f>'Datos CO2 vs IMESI 2023'!K12</f>
         <v>258.08333333333331</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J12+0.2</f>
         <v>0.66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -18820,7 +18906,7 @@
     <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -18850,22 +18936,22 @@
       <c r="A22" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="30">
+      <c r="B22" s="29">
         <f>'Datos CO2 vs IMESI 2023'!K4</f>
         <v>177.8608228100492</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D22" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J4</f>
         <v>0.06</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G22" s="12">
         <f>(D23-D22)/(B23-B22)</f>
@@ -18880,22 +18966,22 @@
       <c r="A23" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="30">
+      <c r="B23" s="29">
         <f>'Datos CO2 vs IMESI 2023'!G4</f>
         <v>306</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D23" s="4">
         <f>D22*3</f>
         <v>0.18</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="G23" s="12">
         <f>(D23-D22)/(B23-B22)</f>
@@ -18992,8 +19078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F294D5A-F5A3-44BA-8960-41B8D9062567}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19003,42 +19089,42 @@
     <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.28515625" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>83</v>
+      <c r="I1" s="34" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -19061,13 +19147,13 @@
         <f>'Escenario 1'!H3</f>
         <v>9.7616279069767442E-2</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>81</v>
+      <c r="H2" s="32" t="s">
+        <v>116</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -19090,15 +19176,15 @@
         <f>'Escenario 1'!H4</f>
         <v>9.7616279069767442E-2</v>
       </c>
-      <c r="H3" s="34" t="s">
-        <v>89</v>
+      <c r="H3" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -19119,15 +19205,15 @@
       <c r="G4" s="12">
         <v>1.7726100000000002E-2</v>
       </c>
-      <c r="H4" s="33" t="s">
-        <v>81</v>
+      <c r="H4" s="32" t="s">
+        <v>116</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -19150,15 +19236,15 @@
         <f>'Escenario 4'!H3</f>
         <v>-1.5330797410111396E-2</v>
       </c>
-      <c r="H5" s="33" t="s">
-        <v>81</v>
+      <c r="H5" s="32" t="s">
+        <v>116</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -19181,19 +19267,19 @@
         <f>'Escenario 4'!H4</f>
         <v>-1.5330797410111396E-2</v>
       </c>
-      <c r="H6" s="34" t="s">
-        <v>89</v>
+      <c r="H6" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>42</v>
@@ -19212,224 +19298,224 @@
         <f>'Escenario 6'!H3</f>
         <v>-0.12199636150146423</v>
       </c>
-      <c r="H7" s="33" t="s">
-        <v>81</v>
+      <c r="H7" s="32" t="s">
+        <v>116</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="38" t="s">
+      <c r="B8" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="38">
         <f>'Escenario 7'!G3</f>
         <v>3.443313886701261E-3</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="38">
         <f>'Escenario 7'!H3</f>
         <v>-0.22866192559281698</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="83.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="41" t="s">
+      <c r="B9" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="41">
         <f>F8</f>
         <v>3.443313886701261E-3</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="41">
         <f>G8</f>
         <v>-0.22866192559281698</v>
       </c>
-      <c r="H9" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="41" t="s">
+      <c r="H9" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49"/>
+      <c r="B10" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <f>'Escenario 8'!G21</f>
         <v>9.3648174298883264E-4</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="44">
         <f>'Escenario 8'!H21</f>
         <v>-0.1065634133545828</v>
       </c>
-      <c r="H10" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>102</v>
+      <c r="H10" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:12" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="76.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="46">
         <f>'Escenario 7'!G3</f>
         <v>3.443313886701261E-3</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="46">
         <f>'Escenario 7'!H3</f>
         <v>-0.22866192559281698</v>
       </c>
-      <c r="H11" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="41" t="s">
+      <c r="H11" s="42" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="51"/>
-      <c r="B12" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="44" t="s">
+      <c r="B12" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="44" t="s">
+      <c r="D12" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="44">
         <f>F10</f>
         <v>9.3648174298883264E-4</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="44">
         <f>G10</f>
         <v>-0.1065634133545828</v>
       </c>
-      <c r="H12" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="44" t="s">
+      <c r="H12" s="45" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="84.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="46">
         <f>'Escenario 7'!G3</f>
         <v>3.443313886701261E-3</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="46">
         <f>'Escenario 7'!H3</f>
         <v>-0.22866192559281698</v>
       </c>
-      <c r="H13" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="53"/>
-      <c r="B14" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="44" t="s">
+      <c r="B14" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="44" t="s">
+      <c r="D14" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <f>F10</f>
         <v>9.3648174298883264E-4</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="44">
         <f>G10</f>
         <v>-0.1065634133545828</v>
       </c>
-      <c r="H14" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" s="44" t="s">
-        <v>117</v>
+      <c r="H14" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -19444,11 +19530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92459CA0-2E6E-4344-88E5-F8C6D92FCBEB}">
-  <dimension ref="A1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92459CA0-2E6E-4344-88E5-F8C6D92FCBEB}">
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19694,176 +19780,248 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
+        <f t="shared" ref="B27:B28" si="0">B28-($B$31-$B$30)</f>
+        <v>-4.2000000000000171</v>
+      </c>
+      <c r="C27" s="54">
+        <f>C28-($C$31-$C$30)</f>
+        <v>9.1999999999999971E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>30.199999999999989</v>
+      </c>
+      <c r="C28" s="54">
+        <f>C29-($C$31-$C$30)</f>
+        <v>0.13799999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <f>B30-($B$31-$B$30)</f>
+        <v>64.599999999999994</v>
+      </c>
+      <c r="C29" s="54">
+        <f>C30-($C$31-$C$30)</f>
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
         <f>B23</f>
         <v>99</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C30" s="4">
         <f>C23</f>
         <v>0.23</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <f>($B$24-$B$23)/$D$24+B27</f>
-        <v>133.4</v>
-      </c>
-      <c r="C28" s="4">
-        <f>($C$24-$C$23)/$D$24+C27</f>
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <f t="shared" ref="B29:B32" si="0">($B$24-$B$23)/$D$24+B28</f>
-        <v>167.8</v>
-      </c>
-      <c r="C29" s="4">
-        <f t="shared" ref="C29:C32" si="1">($C$24-$C$23)/$D$24+C28</f>
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>202.20000000000002</v>
-      </c>
-      <c r="C30" s="4">
-        <f t="shared" si="1"/>
-        <v>0.36799999999999999</v>
-      </c>
-    </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>236.60000000000002</v>
+        <f>($B$24-$B$23)/$D$24+B30</f>
+        <v>133.4</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="1"/>
-        <v>0.41399999999999998</v>
+        <f>($C$24-$C$23)/$D$24+C30</f>
+        <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B32:B35" si="1">($B$24-$B$23)/$D$24+B31</f>
+        <v>167.8</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" ref="C32:C35" si="2">($C$24-$C$23)/$D$24+C31</f>
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <f t="shared" si="1"/>
+        <v>202.20000000000002</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="2"/>
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <f t="shared" si="1"/>
+        <v>236.60000000000002</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="2"/>
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <f t="shared" si="1"/>
         <v>271</v>
       </c>
-      <c r="C32" s="4">
-        <f t="shared" si="1"/>
+      <c r="C35" s="4">
+        <f t="shared" si="2"/>
         <v>0.45999999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" s="17">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>99</v>
-      </c>
-      <c r="C36" s="17">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>133.4</v>
-      </c>
-      <c r="C37" s="17">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>133.4</v>
-      </c>
-      <c r="C38" s="17">
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>167.8</v>
-      </c>
-      <c r="C39" s="17">
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>167.8</v>
-      </c>
-      <c r="C40" s="17">
-        <v>0.32200000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>202.2</v>
-      </c>
-      <c r="C41" s="17">
-        <v>0.32200000000000001</v>
-      </c>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42">
-        <v>202.2</v>
+        <v>0</v>
       </c>
       <c r="C42" s="17">
-        <v>0.36799999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>236.6</v>
+        <v>30.2</v>
       </c>
       <c r="C43" s="17">
-        <v>0.36799999999999999</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>236.6</v>
+        <v>30.2</v>
       </c>
       <c r="C44" s="17">
-        <v>0.41399999999999998</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45">
-        <v>271</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="C45" s="17">
-        <v>0.41399999999999998</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46">
-        <v>271</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="C46" s="17">
-        <v>0.46</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47">
+        <v>99</v>
+      </c>
+      <c r="C47" s="17">
+        <v>0.184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>99</v>
+      </c>
+      <c r="C48" s="17">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>133.4</v>
+      </c>
+      <c r="C49" s="17">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>133.4</v>
+      </c>
+      <c r="C50" s="17">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>167.8</v>
+      </c>
+      <c r="C51" s="17">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>167.8</v>
+      </c>
+      <c r="C52" s="17">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>202.2</v>
+      </c>
+      <c r="C53" s="17">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>202.2</v>
+      </c>
+      <c r="C54" s="17">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>236.6</v>
+      </c>
+      <c r="C55" s="17">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>236.6</v>
+      </c>
+      <c r="C56" s="17">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>271</v>
+      </c>
+      <c r="C57" s="17">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>271</v>
+      </c>
+      <c r="C58" s="17">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59">
         <v>300</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C59" s="17">
         <v>0.46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19883,8 +20041,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>88</v>
+      <c r="A1" s="35" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -19985,7 +20143,7 @@
   <dimension ref="A1:E614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20020,7 +20178,7 @@
       <c r="D2" s="22">
         <v>141</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20037,7 +20195,7 @@
       <c r="D3" s="22">
         <v>107</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20054,7 +20212,7 @@
       <c r="D4" s="22">
         <v>116</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20071,7 +20229,7 @@
       <c r="D5" s="22">
         <v>141</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20088,7 +20246,7 @@
       <c r="D6" s="22">
         <v>135</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -20105,7 +20263,7 @@
       <c r="D7" s="22">
         <v>117</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -20122,7 +20280,7 @@
       <c r="D8" s="22">
         <v>126</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20139,7 +20297,7 @@
       <c r="D9" s="22">
         <v>132</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20156,7 +20314,7 @@
       <c r="D10" s="22">
         <v>137</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -20173,7 +20331,7 @@
       <c r="D11" s="22">
         <v>132</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20190,7 +20348,7 @@
       <c r="D12" s="22">
         <v>97</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -20207,7 +20365,7 @@
       <c r="D13" s="22">
         <v>126</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20224,7 +20382,7 @@
       <c r="D14" s="22">
         <v>154</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20241,7 +20399,7 @@
       <c r="D15" s="22">
         <v>132</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20258,7 +20416,7 @@
       <c r="D16" s="22">
         <v>137</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -20275,7 +20433,7 @@
       <c r="D17" s="22">
         <v>117</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -20292,7 +20450,7 @@
       <c r="D18" s="22">
         <v>117</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -20309,7 +20467,7 @@
       <c r="D19" s="22">
         <v>169</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -20326,7 +20484,7 @@
       <c r="D20" s="22">
         <v>97</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20343,7 +20501,7 @@
       <c r="D21" s="22">
         <v>131</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20360,7 +20518,7 @@
       <c r="D22" s="22">
         <v>141</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20377,7 +20535,7 @@
       <c r="D23" s="22">
         <v>145</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20394,7 +20552,7 @@
       <c r="D24" s="22">
         <v>134</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20411,7 +20569,7 @@
       <c r="D25" s="22">
         <v>126</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20428,7 +20586,7 @@
       <c r="D26" s="22">
         <v>141</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20445,7 +20603,7 @@
       <c r="D27" s="22">
         <v>134</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20462,7 +20620,7 @@
       <c r="D28" s="22">
         <v>146</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -20479,7 +20637,7 @@
       <c r="D29" s="22">
         <v>134</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20496,7 +20654,7 @@
       <c r="D30" s="22">
         <v>134</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20513,7 +20671,7 @@
       <c r="D31" s="22">
         <v>166</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -20530,7 +20688,7 @@
       <c r="D32" s="22">
         <v>126</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20547,7 +20705,7 @@
       <c r="D33" s="22">
         <v>116</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20564,7 +20722,7 @@
       <c r="D34" s="22">
         <v>138</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20581,7 +20739,7 @@
       <c r="D35" s="22">
         <v>169</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -20598,7 +20756,7 @@
       <c r="D36" s="22">
         <v>132</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20615,7 +20773,7 @@
       <c r="D37" s="22">
         <v>132</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20632,7 +20790,7 @@
       <c r="D38" s="22">
         <v>140</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -20649,7 +20807,7 @@
       <c r="D39" s="22">
         <v>140</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -20666,7 +20824,7 @@
       <c r="D40" s="22">
         <v>137</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -20683,7 +20841,7 @@
       <c r="D41" s="22">
         <v>135</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -20700,7 +20858,7 @@
       <c r="D42" s="22">
         <v>169</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -20717,7 +20875,7 @@
       <c r="D43" s="22">
         <v>155</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20734,7 +20892,7 @@
       <c r="D44" s="22">
         <v>132</v>
       </c>
-      <c r="E44" s="23">
+      <c r="E44" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -20751,7 +20909,7 @@
       <c r="D45" s="22">
         <v>132</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -20768,7 +20926,7 @@
       <c r="D46" s="22">
         <v>116</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20785,7 +20943,7 @@
       <c r="D47" s="22">
         <v>140</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -20802,7 +20960,7 @@
       <c r="D48" s="22">
         <v>173</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -20819,7 +20977,7 @@
       <c r="D49" s="22">
         <v>137</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -20836,7 +20994,7 @@
       <c r="D50" s="22">
         <v>137</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -20853,7 +21011,7 @@
       <c r="D51" s="22">
         <v>140</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -20870,7 +21028,7 @@
       <c r="D52" s="22">
         <v>155</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20887,7 +21045,7 @@
       <c r="D53" s="22">
         <v>132</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20904,7 +21062,7 @@
       <c r="D54" s="22">
         <v>117</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -20921,7 +21079,7 @@
       <c r="D55" s="22">
         <v>173</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -20938,7 +21096,7 @@
       <c r="D56" s="22">
         <v>132</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -20955,7 +21113,7 @@
       <c r="D57" s="22">
         <v>101</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -20972,7 +21130,7 @@
       <c r="D58" s="22">
         <v>135</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -20989,7 +21147,7 @@
       <c r="D59" s="22">
         <v>169</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21006,7 +21164,7 @@
       <c r="D60" s="22">
         <v>115</v>
       </c>
-      <c r="E60" s="23">
+      <c r="E60" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21023,7 +21181,7 @@
       <c r="D61" s="22">
         <v>129</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -21040,7 +21198,7 @@
       <c r="D62" s="22">
         <v>129</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -21057,7 +21215,7 @@
       <c r="D63" s="22">
         <v>167.09</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21074,7 +21232,7 @@
       <c r="D64" s="22">
         <v>156.1</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21091,7 +21249,7 @@
       <c r="D65" s="22">
         <v>117</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21108,7 +21266,7 @@
       <c r="D66" s="22">
         <v>135</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21125,7 +21283,7 @@
       <c r="D67" s="22">
         <v>132</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21142,7 +21300,7 @@
       <c r="D68" s="22">
         <v>137</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21159,7 +21317,7 @@
       <c r="D69" s="22">
         <v>146</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21176,7 +21334,7 @@
       <c r="D70" s="22">
         <v>144</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21193,7 +21351,7 @@
       <c r="D71" s="22">
         <v>101</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -21210,7 +21368,7 @@
       <c r="D72" s="22">
         <v>137</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21227,7 +21385,7 @@
       <c r="D73" s="22">
         <v>158</v>
       </c>
-      <c r="E73" s="23">
+      <c r="E73" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21244,7 +21402,7 @@
       <c r="D74" s="22">
         <v>132</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21261,7 +21419,7 @@
       <c r="D75" s="22">
         <v>141</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21278,7 +21436,7 @@
       <c r="D76" s="22">
         <v>154</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -21295,7 +21453,7 @@
       <c r="D77" s="22">
         <v>167.09</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E77" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21312,7 +21470,7 @@
       <c r="D78" s="22">
         <v>158</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E78" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -21329,7 +21487,7 @@
       <c r="D79" s="22">
         <v>130</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21346,7 +21504,7 @@
       <c r="D80" s="22">
         <v>141</v>
       </c>
-      <c r="E80" s="23">
+      <c r="E80" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21363,7 +21521,7 @@
       <c r="D81" s="22">
         <v>173</v>
       </c>
-      <c r="E81" s="23">
+      <c r="E81" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21380,7 +21538,7 @@
       <c r="D82" s="22">
         <v>144</v>
       </c>
-      <c r="E82" s="23">
+      <c r="E82" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21397,7 +21555,7 @@
       <c r="D83" s="22">
         <v>158</v>
       </c>
-      <c r="E83" s="23">
+      <c r="E83" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -21414,7 +21572,7 @@
       <c r="D84" s="22">
         <v>132</v>
       </c>
-      <c r="E84" s="23">
+      <c r="E84" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21431,7 +21589,7 @@
       <c r="D85" s="22">
         <v>156.1</v>
       </c>
-      <c r="E85" s="23">
+      <c r="E85" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21448,7 +21606,7 @@
       <c r="D86" s="22">
         <v>129</v>
       </c>
-      <c r="E86" s="23">
+      <c r="E86" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -21465,7 +21623,7 @@
       <c r="D87" s="22">
         <v>158</v>
       </c>
-      <c r="E87" s="23">
+      <c r="E87" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -21482,7 +21640,7 @@
       <c r="D88" s="22">
         <v>139</v>
       </c>
-      <c r="E88" s="23">
+      <c r="E88" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21499,7 +21657,7 @@
       <c r="D89" s="22">
         <v>131</v>
       </c>
-      <c r="E89" s="23">
+      <c r="E89" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21516,7 +21674,7 @@
       <c r="D90" s="22">
         <v>48</v>
       </c>
-      <c r="E90" s="23">
+      <c r="E90" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -21533,7 +21691,7 @@
       <c r="D91" s="22">
         <v>48</v>
       </c>
-      <c r="E91" s="23">
+      <c r="E91" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -21550,7 +21708,7 @@
       <c r="D92" s="22">
         <v>132</v>
       </c>
-      <c r="E92" s="23">
+      <c r="E92" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21567,7 +21725,7 @@
       <c r="D93" s="22">
         <v>164</v>
       </c>
-      <c r="E93" s="23">
+      <c r="E93" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21584,7 +21742,7 @@
       <c r="D94" s="22">
         <v>132</v>
       </c>
-      <c r="E94" s="23">
+      <c r="E94" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -21601,7 +21759,7 @@
       <c r="D95" s="22">
         <v>48</v>
       </c>
-      <c r="E95" s="23">
+      <c r="E95" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -21618,7 +21776,7 @@
       <c r="D96" s="22">
         <v>129</v>
       </c>
-      <c r="E96" s="23">
+      <c r="E96" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -21635,7 +21793,7 @@
       <c r="D97" s="22">
         <v>144</v>
       </c>
-      <c r="E97" s="23">
+      <c r="E97" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21652,7 +21810,7 @@
       <c r="D98" s="22">
         <v>148</v>
       </c>
-      <c r="E98" s="23">
+      <c r="E98" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21669,7 +21827,7 @@
       <c r="D99" s="22">
         <v>156</v>
       </c>
-      <c r="E99" s="23">
+      <c r="E99" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21686,7 +21844,7 @@
       <c r="D100" s="22">
         <v>135</v>
       </c>
-      <c r="E100" s="23">
+      <c r="E100" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21703,7 +21861,7 @@
       <c r="D101" s="22">
         <v>132</v>
       </c>
-      <c r="E101" s="23">
+      <c r="E101" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21720,7 +21878,7 @@
       <c r="D102" s="22">
         <v>131</v>
       </c>
-      <c r="E102" s="23">
+      <c r="E102" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21737,7 +21895,7 @@
       <c r="D103" s="22">
         <v>117</v>
       </c>
-      <c r="E103" s="23">
+      <c r="E103" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21750,7 +21908,7 @@
       </c>
       <c r="C104" s="22"/>
       <c r="D104" s="22"/>
-      <c r="E104" s="23">
+      <c r="E104" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21767,7 +21925,7 @@
       <c r="D105" s="22">
         <v>137</v>
       </c>
-      <c r="E105" s="23">
+      <c r="E105" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21784,7 +21942,7 @@
       <c r="D106" s="22">
         <v>132</v>
       </c>
-      <c r="E106" s="23">
+      <c r="E106" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21801,7 +21959,7 @@
       <c r="D107" s="22">
         <v>147</v>
       </c>
-      <c r="E107" s="23">
+      <c r="E107" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21818,7 +21976,7 @@
       <c r="D108" s="22">
         <v>137</v>
       </c>
-      <c r="E108" s="23">
+      <c r="E108" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21835,7 +21993,7 @@
       <c r="D109" s="22">
         <v>156</v>
       </c>
-      <c r="E109" s="23">
+      <c r="E109" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21852,7 +22010,7 @@
       <c r="D110" s="22">
         <v>137</v>
       </c>
-      <c r="E110" s="23">
+      <c r="E110" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21869,7 +22027,7 @@
       <c r="D111" s="22">
         <v>149</v>
       </c>
-      <c r="E111" s="23">
+      <c r="E111" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21882,7 +22040,7 @@
       </c>
       <c r="C112" s="22"/>
       <c r="D112" s="22"/>
-      <c r="E112" s="23">
+      <c r="E112" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21899,7 +22057,7 @@
       <c r="D113" s="22">
         <v>156</v>
       </c>
-      <c r="E113" s="23">
+      <c r="E113" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21916,7 +22074,7 @@
       <c r="D114" s="22">
         <v>175</v>
       </c>
-      <c r="E114" s="23">
+      <c r="E114" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -21933,7 +22091,7 @@
       <c r="D115" s="22">
         <v>166</v>
       </c>
-      <c r="E115" s="23">
+      <c r="E115" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -21950,7 +22108,7 @@
       <c r="D116" s="22">
         <v>137</v>
       </c>
-      <c r="E116" s="23">
+      <c r="E116" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21967,7 +22125,7 @@
       <c r="D117" s="22">
         <v>140</v>
       </c>
-      <c r="E117" s="23">
+      <c r="E117" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -21984,7 +22142,7 @@
       <c r="D118" s="22">
         <v>151</v>
       </c>
-      <c r="E118" s="23">
+      <c r="E118" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22001,7 +22159,7 @@
       <c r="D119" s="22">
         <v>201</v>
       </c>
-      <c r="E119" s="23">
+      <c r="E119" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -22018,7 +22176,7 @@
       <c r="D120" s="22">
         <v>140</v>
       </c>
-      <c r="E120" s="23">
+      <c r="E120" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22035,7 +22193,7 @@
       <c r="D121" s="22">
         <v>271</v>
       </c>
-      <c r="E121" s="23">
+      <c r="E121" s="47">
         <v>0.46</v>
       </c>
     </row>
@@ -22048,7 +22206,7 @@
       </c>
       <c r="C122" s="22"/>
       <c r="D122" s="22"/>
-      <c r="E122" s="23">
+      <c r="E122" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -22061,7 +22219,7 @@
       </c>
       <c r="C123" s="22"/>
       <c r="D123" s="22"/>
-      <c r="E123" s="23">
+      <c r="E123" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -22074,7 +22232,7 @@
       </c>
       <c r="C124" s="22"/>
       <c r="D124" s="22"/>
-      <c r="E124" s="23">
+      <c r="E124" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22087,7 +22245,7 @@
       </c>
       <c r="C125" s="22"/>
       <c r="D125" s="22"/>
-      <c r="E125" s="23">
+      <c r="E125" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22100,7 +22258,7 @@
       </c>
       <c r="C126" s="22"/>
       <c r="D126" s="22"/>
-      <c r="E126" s="23">
+      <c r="E126" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -22113,7 +22271,7 @@
       </c>
       <c r="C127" s="22"/>
       <c r="D127" s="22"/>
-      <c r="E127" s="23">
+      <c r="E127" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -22130,7 +22288,7 @@
       <c r="D128" s="22">
         <v>140</v>
       </c>
-      <c r="E128" s="23">
+      <c r="E128" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22143,7 +22301,7 @@
       </c>
       <c r="C129" s="22"/>
       <c r="D129" s="22"/>
-      <c r="E129" s="23">
+      <c r="E129" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22156,7 +22314,7 @@
       </c>
       <c r="C130" s="22"/>
       <c r="D130" s="22"/>
-      <c r="E130" s="23">
+      <c r="E130" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22169,7 +22327,7 @@
       </c>
       <c r="C131" s="22"/>
       <c r="D131" s="22"/>
-      <c r="E131" s="23">
+      <c r="E131" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22182,7 +22340,7 @@
       </c>
       <c r="C132" s="22"/>
       <c r="D132" s="22"/>
-      <c r="E132" s="23">
+      <c r="E132" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22199,7 +22357,7 @@
       <c r="D133" s="22">
         <v>144</v>
       </c>
-      <c r="E133" s="23">
+      <c r="E133" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22216,7 +22374,7 @@
       <c r="D134" s="22">
         <v>140</v>
       </c>
-      <c r="E134" s="23">
+      <c r="E134" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22229,7 +22387,7 @@
       </c>
       <c r="C135" s="22"/>
       <c r="D135" s="22"/>
-      <c r="E135" s="23">
+      <c r="E135" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -22246,7 +22404,7 @@
       <c r="D136" s="22">
         <v>142</v>
       </c>
-      <c r="E136" s="23">
+      <c r="E136" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22259,7 +22417,7 @@
       </c>
       <c r="C137" s="22"/>
       <c r="D137" s="22"/>
-      <c r="E137" s="23">
+      <c r="E137" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22272,7 +22430,7 @@
       </c>
       <c r="C138" s="22"/>
       <c r="D138" s="22"/>
-      <c r="E138" s="23">
+      <c r="E138" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22289,7 +22447,7 @@
       <c r="D139" s="22">
         <v>158</v>
       </c>
-      <c r="E139" s="23">
+      <c r="E139" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22302,7 +22460,7 @@
       </c>
       <c r="C140" s="22"/>
       <c r="D140" s="22"/>
-      <c r="E140" s="23">
+      <c r="E140" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22319,7 +22477,7 @@
       <c r="D141" s="22">
         <v>138</v>
       </c>
-      <c r="E141" s="23">
+      <c r="E141" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22332,7 +22490,7 @@
       </c>
       <c r="C142" s="22"/>
       <c r="D142" s="22"/>
-      <c r="E142" s="23">
+      <c r="E142" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -22345,7 +22503,7 @@
       </c>
       <c r="C143" s="22"/>
       <c r="D143" s="22"/>
-      <c r="E143" s="23">
+      <c r="E143" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -22358,7 +22516,7 @@
       </c>
       <c r="C144" s="22"/>
       <c r="D144" s="22"/>
-      <c r="E144" s="23">
+      <c r="E144" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -22371,7 +22529,7 @@
       </c>
       <c r="C145" s="22"/>
       <c r="D145" s="22"/>
-      <c r="E145" s="23">
+      <c r="E145" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -22388,7 +22546,7 @@
       <c r="D146" s="22">
         <v>131</v>
       </c>
-      <c r="E146" s="23">
+      <c r="E146" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -22405,7 +22563,7 @@
       <c r="D147" s="22">
         <v>132</v>
       </c>
-      <c r="E147" s="23">
+      <c r="E147" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -22422,7 +22580,7 @@
       <c r="D148" s="22">
         <v>132</v>
       </c>
-      <c r="E148" s="23">
+      <c r="E148" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22439,7 +22597,7 @@
       <c r="D149" s="22">
         <v>132</v>
       </c>
-      <c r="E149" s="23">
+      <c r="E149" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22452,7 +22610,7 @@
       </c>
       <c r="C150" s="22"/>
       <c r="D150" s="22"/>
-      <c r="E150" s="23">
+      <c r="E150" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22465,7 +22623,7 @@
       </c>
       <c r="C151" s="22"/>
       <c r="D151" s="22"/>
-      <c r="E151" s="23">
+      <c r="E151" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22478,7 +22636,7 @@
       </c>
       <c r="C152" s="22"/>
       <c r="D152" s="22"/>
-      <c r="E152" s="23">
+      <c r="E152" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22495,7 +22653,7 @@
       <c r="D153" s="22">
         <v>156</v>
       </c>
-      <c r="E153" s="23">
+      <c r="E153" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22512,7 +22670,7 @@
       <c r="D154" s="22">
         <v>140</v>
       </c>
-      <c r="E154" s="23">
+      <c r="E154" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22525,7 +22683,7 @@
       </c>
       <c r="C155" s="22"/>
       <c r="D155" s="22"/>
-      <c r="E155" s="23">
+      <c r="E155" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22538,7 +22696,7 @@
       </c>
       <c r="C156" s="22"/>
       <c r="D156" s="22"/>
-      <c r="E156" s="23">
+      <c r="E156" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22551,7 +22709,7 @@
       </c>
       <c r="C157" s="22"/>
       <c r="D157" s="22"/>
-      <c r="E157" s="23">
+      <c r="E157" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22564,7 +22722,7 @@
       </c>
       <c r="C158" s="22"/>
       <c r="D158" s="22"/>
-      <c r="E158" s="23">
+      <c r="E158" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22577,7 +22735,7 @@
       </c>
       <c r="C159" s="22"/>
       <c r="D159" s="22"/>
-      <c r="E159" s="23">
+      <c r="E159" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -22594,7 +22752,7 @@
       <c r="D160" s="22">
         <v>132</v>
       </c>
-      <c r="E160" s="23">
+      <c r="E160" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22611,7 +22769,7 @@
       <c r="D161" s="22">
         <v>142</v>
       </c>
-      <c r="E161" s="23">
+      <c r="E161" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22624,7 +22782,7 @@
       </c>
       <c r="C162" s="22"/>
       <c r="D162" s="22"/>
-      <c r="E162" s="23">
+      <c r="E162" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22637,7 +22795,7 @@
       </c>
       <c r="C163" s="22"/>
       <c r="D163" s="22"/>
-      <c r="E163" s="23">
+      <c r="E163" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -22654,7 +22812,7 @@
       <c r="D164" s="22">
         <v>137</v>
       </c>
-      <c r="E164" s="23">
+      <c r="E164" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22671,7 +22829,7 @@
       <c r="D165" s="22">
         <v>164</v>
       </c>
-      <c r="E165" s="23">
+      <c r="E165" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22684,7 +22842,7 @@
       </c>
       <c r="C166" s="22"/>
       <c r="D166" s="22"/>
-      <c r="E166" s="23">
+      <c r="E166" s="47">
         <v>0</v>
       </c>
     </row>
@@ -22697,7 +22855,7 @@
       </c>
       <c r="C167" s="22"/>
       <c r="D167" s="22"/>
-      <c r="E167" s="23">
+      <c r="E167" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22714,7 +22872,7 @@
       <c r="D168" s="22">
         <v>138</v>
       </c>
-      <c r="E168" s="23">
+      <c r="E168" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22731,7 +22889,7 @@
       <c r="D169" s="22">
         <v>138</v>
       </c>
-      <c r="E169" s="23">
+      <c r="E169" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22744,7 +22902,7 @@
       </c>
       <c r="C170" s="22"/>
       <c r="D170" s="22"/>
-      <c r="E170" s="23">
+      <c r="E170" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -22757,7 +22915,7 @@
       </c>
       <c r="C171" s="22"/>
       <c r="D171" s="22"/>
-      <c r="E171" s="23">
+      <c r="E171" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -22770,7 +22928,7 @@
       </c>
       <c r="C172" s="22"/>
       <c r="D172" s="22"/>
-      <c r="E172" s="23">
+      <c r="E172" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22783,7 +22941,7 @@
       </c>
       <c r="C173" s="22"/>
       <c r="D173" s="22"/>
-      <c r="E173" s="23">
+      <c r="E173" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22796,7 +22954,7 @@
       </c>
       <c r="C174" s="22"/>
       <c r="D174" s="22"/>
-      <c r="E174" s="23">
+      <c r="E174" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22809,7 +22967,7 @@
       </c>
       <c r="C175" s="22"/>
       <c r="D175" s="22"/>
-      <c r="E175" s="23">
+      <c r="E175" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -22822,7 +22980,7 @@
       </c>
       <c r="C176" s="22"/>
       <c r="D176" s="22"/>
-      <c r="E176" s="23">
+      <c r="E176" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22835,7 +22993,7 @@
       </c>
       <c r="C177" s="22"/>
       <c r="D177" s="22"/>
-      <c r="E177" s="23">
+      <c r="E177" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22848,7 +23006,7 @@
       </c>
       <c r="C178" s="22"/>
       <c r="D178" s="22"/>
-      <c r="E178" s="23">
+      <c r="E178" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22861,7 +23019,7 @@
       </c>
       <c r="C179" s="22"/>
       <c r="D179" s="22"/>
-      <c r="E179" s="23">
+      <c r="E179" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22874,7 +23032,7 @@
       </c>
       <c r="C180" s="22"/>
       <c r="D180" s="22"/>
-      <c r="E180" s="23">
+      <c r="E180" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -22887,7 +23045,7 @@
       </c>
       <c r="C181" s="22"/>
       <c r="D181" s="22"/>
-      <c r="E181" s="23">
+      <c r="E181" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22904,7 +23062,7 @@
       <c r="D182" s="22">
         <v>170</v>
       </c>
-      <c r="E182" s="23">
+      <c r="E182" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22917,7 +23075,7 @@
       </c>
       <c r="C183" s="22"/>
       <c r="D183" s="22"/>
-      <c r="E183" s="23">
+      <c r="E183" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22930,7 +23088,7 @@
       </c>
       <c r="C184" s="22"/>
       <c r="D184" s="22"/>
-      <c r="E184" s="23">
+      <c r="E184" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22947,7 +23105,7 @@
       <c r="D185" s="22">
         <v>132</v>
       </c>
-      <c r="E185" s="23">
+      <c r="E185" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -22964,7 +23122,7 @@
       <c r="D186" s="22">
         <v>132</v>
       </c>
-      <c r="E186" s="23">
+      <c r="E186" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -22977,7 +23135,7 @@
       </c>
       <c r="C187" s="22"/>
       <c r="D187" s="22"/>
-      <c r="E187" s="23">
+      <c r="E187" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -22990,7 +23148,7 @@
       </c>
       <c r="C188" s="22"/>
       <c r="D188" s="22"/>
-      <c r="E188" s="23">
+      <c r="E188" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -23003,7 +23161,7 @@
       </c>
       <c r="C189" s="22"/>
       <c r="D189" s="22"/>
-      <c r="E189" s="23">
+      <c r="E189" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23016,7 +23174,7 @@
       </c>
       <c r="C190" s="22"/>
       <c r="D190" s="22"/>
-      <c r="E190" s="23">
+      <c r="E190" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23029,7 +23187,7 @@
       </c>
       <c r="C191" s="22"/>
       <c r="D191" s="22"/>
-      <c r="E191" s="23">
+      <c r="E191" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -23042,7 +23200,7 @@
       </c>
       <c r="C192" s="22"/>
       <c r="D192" s="22"/>
-      <c r="E192" s="23">
+      <c r="E192" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23055,7 +23213,7 @@
       </c>
       <c r="C193" s="22"/>
       <c r="D193" s="22"/>
-      <c r="E193" s="23">
+      <c r="E193" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23068,7 +23226,7 @@
       </c>
       <c r="C194" s="22"/>
       <c r="D194" s="22"/>
-      <c r="E194" s="23">
+      <c r="E194" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23085,7 +23243,7 @@
       <c r="D195" s="22">
         <v>135</v>
       </c>
-      <c r="E195" s="23">
+      <c r="E195" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23098,7 +23256,7 @@
       </c>
       <c r="C196" s="22"/>
       <c r="D196" s="22"/>
-      <c r="E196" s="23">
+      <c r="E196" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23111,7 +23269,7 @@
       </c>
       <c r="C197" s="22"/>
       <c r="D197" s="22"/>
-      <c r="E197" s="23">
+      <c r="E197" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23124,7 +23282,7 @@
       </c>
       <c r="C198" s="22"/>
       <c r="D198" s="22"/>
-      <c r="E198" s="23">
+      <c r="E198" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23141,7 +23299,7 @@
       <c r="D199" s="22">
         <v>114</v>
       </c>
-      <c r="E199" s="23">
+      <c r="E199" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -23158,7 +23316,7 @@
       <c r="D200" s="22">
         <v>164</v>
       </c>
-      <c r="E200" s="23">
+      <c r="E200" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23175,7 +23333,7 @@
       <c r="D201" s="22">
         <v>194</v>
       </c>
-      <c r="E201" s="23">
+      <c r="E201" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23188,7 +23346,7 @@
       </c>
       <c r="C202" s="22"/>
       <c r="D202" s="22"/>
-      <c r="E202" s="23">
+      <c r="E202" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23205,7 +23363,7 @@
       <c r="D203" s="22">
         <v>98</v>
       </c>
-      <c r="E203" s="23">
+      <c r="E203" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -23222,7 +23380,7 @@
       <c r="D204" s="22">
         <v>149</v>
       </c>
-      <c r="E204" s="23">
+      <c r="E204" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -23239,7 +23397,7 @@
       <c r="D205" s="22">
         <v>149</v>
       </c>
-      <c r="E205" s="23">
+      <c r="E205" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -23256,7 +23414,7 @@
       <c r="D206" s="22">
         <v>146</v>
       </c>
-      <c r="E206" s="23">
+      <c r="E206" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23273,7 +23431,7 @@
       <c r="D207" s="22">
         <v>135</v>
       </c>
-      <c r="E207" s="23">
+      <c r="E207" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -23290,7 +23448,7 @@
       <c r="D208" s="22">
         <v>133</v>
       </c>
-      <c r="E208" s="23">
+      <c r="E208" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -23307,7 +23465,7 @@
       <c r="D209" s="22">
         <v>158</v>
       </c>
-      <c r="E209" s="23">
+      <c r="E209" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23324,7 +23482,7 @@
       <c r="D210" s="22">
         <v>154</v>
       </c>
-      <c r="E210" s="23">
+      <c r="E210" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -23341,7 +23499,7 @@
       <c r="D211" s="22">
         <v>98</v>
       </c>
-      <c r="E211" s="23">
+      <c r="E211" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -23358,7 +23516,7 @@
       <c r="D212" s="22">
         <v>158</v>
       </c>
-      <c r="E212" s="23">
+      <c r="E212" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23375,7 +23533,7 @@
       <c r="D213" s="22">
         <v>150</v>
       </c>
-      <c r="E213" s="23">
+      <c r="E213" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -23392,7 +23550,7 @@
       <c r="D214" s="22">
         <v>169</v>
       </c>
-      <c r="E214" s="23">
+      <c r="E214" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23409,7 +23567,7 @@
       <c r="D215" s="22">
         <v>177.53</v>
       </c>
-      <c r="E215" s="23">
+      <c r="E215" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23426,7 +23584,7 @@
       <c r="D216" s="22">
         <v>146</v>
       </c>
-      <c r="E216" s="23">
+      <c r="E216" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23443,7 +23601,7 @@
       <c r="D217" s="22">
         <v>133</v>
       </c>
-      <c r="E217" s="23">
+      <c r="E217" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -23460,7 +23618,7 @@
       <c r="D218" s="22">
         <v>212</v>
       </c>
-      <c r="E218" s="23">
+      <c r="E218" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23477,7 +23635,7 @@
       <c r="D219" s="22">
         <v>154</v>
       </c>
-      <c r="E219" s="23">
+      <c r="E219" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -23494,7 +23652,7 @@
       <c r="D220" s="22">
         <v>179</v>
       </c>
-      <c r="E220" s="23">
+      <c r="E220" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23511,7 +23669,7 @@
       <c r="D221" s="22">
         <v>179</v>
       </c>
-      <c r="E221" s="23">
+      <c r="E221" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23528,7 +23686,7 @@
       <c r="D222" s="22">
         <v>151</v>
       </c>
-      <c r="E222" s="23">
+      <c r="E222" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23545,7 +23703,7 @@
       <c r="D223" s="22">
         <v>169</v>
       </c>
-      <c r="E223" s="23">
+      <c r="E223" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23562,7 +23720,7 @@
       <c r="D224" s="22">
         <v>169</v>
       </c>
-      <c r="E224" s="23">
+      <c r="E224" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23579,7 +23737,7 @@
       <c r="D225" s="22">
         <v>157</v>
       </c>
-      <c r="E225" s="23">
+      <c r="E225" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23596,7 +23754,7 @@
       <c r="D226" s="22">
         <v>157</v>
       </c>
-      <c r="E226" s="23">
+      <c r="E226" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -23613,7 +23771,7 @@
       <c r="D227" s="22">
         <v>148</v>
       </c>
-      <c r="E227" s="23">
+      <c r="E227" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23630,7 +23788,7 @@
       <c r="D228" s="22">
         <v>212</v>
       </c>
-      <c r="E228" s="23">
+      <c r="E228" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23647,7 +23805,7 @@
       <c r="D229" s="22">
         <v>141</v>
       </c>
-      <c r="E229" s="23">
+      <c r="E229" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23664,7 +23822,7 @@
       <c r="D230" s="22">
         <v>142</v>
       </c>
-      <c r="E230" s="23">
+      <c r="E230" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -23681,7 +23839,7 @@
       <c r="D231" s="22">
         <v>159</v>
       </c>
-      <c r="E231" s="23">
+      <c r="E231" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23698,7 +23856,7 @@
       <c r="D232" s="22">
         <v>141</v>
       </c>
-      <c r="E232" s="23">
+      <c r="E232" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23715,7 +23873,7 @@
       <c r="D233" s="22">
         <v>159</v>
       </c>
-      <c r="E233" s="23">
+      <c r="E233" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23732,7 +23890,7 @@
       <c r="D234" s="22">
         <v>182.49</v>
       </c>
-      <c r="E234" s="23">
+      <c r="E234" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23749,7 +23907,7 @@
       <c r="D235" s="22">
         <v>189</v>
       </c>
-      <c r="E235" s="23">
+      <c r="E235" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23766,7 +23924,7 @@
       <c r="D236" s="22">
         <v>158</v>
       </c>
-      <c r="E236" s="23">
+      <c r="E236" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23783,7 +23941,7 @@
       <c r="D237" s="22">
         <v>143</v>
       </c>
-      <c r="E237" s="23">
+      <c r="E237" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23800,7 +23958,7 @@
       <c r="D238" s="22">
         <v>154</v>
       </c>
-      <c r="E238" s="23">
+      <c r="E238" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -23817,7 +23975,7 @@
       <c r="D239" s="22">
         <v>99</v>
       </c>
-      <c r="E239" s="23">
+      <c r="E239" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -23834,7 +23992,7 @@
       <c r="D240" s="22">
         <v>120</v>
       </c>
-      <c r="E240" s="23">
+      <c r="E240" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -23851,7 +24009,7 @@
       <c r="D241" s="22">
         <v>133</v>
       </c>
-      <c r="E241" s="23">
+      <c r="E241" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -23868,7 +24026,7 @@
       <c r="D242" s="22">
         <v>163</v>
       </c>
-      <c r="E242" s="23">
+      <c r="E242" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23885,7 +24043,7 @@
       <c r="D243" s="22">
         <v>168</v>
       </c>
-      <c r="E243" s="23">
+      <c r="E243" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23902,7 +24060,7 @@
       <c r="D244" s="22">
         <v>131</v>
       </c>
-      <c r="E244" s="23">
+      <c r="E244" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -23919,7 +24077,7 @@
       <c r="D245" s="22">
         <v>169</v>
       </c>
-      <c r="E245" s="23">
+      <c r="E245" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -23936,7 +24094,7 @@
       <c r="D246" s="22">
         <v>148</v>
       </c>
-      <c r="E246" s="23">
+      <c r="E246" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23953,7 +24111,7 @@
       <c r="D247" s="22">
         <v>194</v>
       </c>
-      <c r="E247" s="23">
+      <c r="E247" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23970,7 +24128,7 @@
       <c r="D248" s="22">
         <v>176</v>
       </c>
-      <c r="E248" s="23">
+      <c r="E248" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -23987,7 +24145,7 @@
       <c r="D249" s="22">
         <v>151</v>
       </c>
-      <c r="E249" s="23">
+      <c r="E249" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24004,7 +24162,7 @@
       <c r="D250" s="22">
         <v>201</v>
       </c>
-      <c r="E250" s="23">
+      <c r="E250" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -24021,7 +24179,7 @@
       <c r="D251" s="22">
         <v>145</v>
       </c>
-      <c r="E251" s="23">
+      <c r="E251" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24038,7 +24196,7 @@
       <c r="D252" s="22">
         <v>182.49</v>
       </c>
-      <c r="E252" s="23">
+      <c r="E252" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -24055,7 +24213,7 @@
       <c r="D253" s="22">
         <v>177</v>
       </c>
-      <c r="E253" s="23">
+      <c r="E253" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -24072,7 +24230,7 @@
       <c r="D254" s="22">
         <v>185</v>
       </c>
-      <c r="E254" s="23">
+      <c r="E254" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24089,7 +24247,7 @@
       <c r="D255" s="22">
         <v>190</v>
       </c>
-      <c r="E255" s="23">
+      <c r="E255" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24106,7 +24264,7 @@
       <c r="D256" s="22">
         <v>177.53</v>
       </c>
-      <c r="E256" s="23">
+      <c r="E256" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -24123,7 +24281,7 @@
       <c r="D257" s="22">
         <v>161.69999999999999</v>
       </c>
-      <c r="E257" s="23">
+      <c r="E257" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -24140,7 +24298,7 @@
       <c r="D258" s="22">
         <v>145</v>
       </c>
-      <c r="E258" s="23">
+      <c r="E258" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24157,7 +24315,7 @@
       <c r="D259" s="22">
         <v>109</v>
       </c>
-      <c r="E259" s="23">
+      <c r="E259" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -24174,7 +24332,7 @@
       <c r="D260" s="22">
         <v>179</v>
       </c>
-      <c r="E260" s="23">
+      <c r="E260" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24191,7 +24349,7 @@
       <c r="D261" s="22">
         <v>30</v>
       </c>
-      <c r="E261" s="23">
+      <c r="E261" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -24208,7 +24366,7 @@
       <c r="D262" s="22">
         <v>157</v>
       </c>
-      <c r="E262" s="23">
+      <c r="E262" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -24225,7 +24383,7 @@
       <c r="D263" s="22">
         <v>150</v>
       </c>
-      <c r="E263" s="23">
+      <c r="E263" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -24242,7 +24400,7 @@
       <c r="D264" s="22">
         <v>176</v>
       </c>
-      <c r="E264" s="23">
+      <c r="E264" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24259,7 +24417,7 @@
       <c r="D265" s="22">
         <v>179</v>
       </c>
-      <c r="E265" s="23">
+      <c r="E265" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -24276,7 +24434,7 @@
       <c r="D266" s="22">
         <v>189</v>
       </c>
-      <c r="E266" s="23">
+      <c r="E266" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -24293,7 +24451,7 @@
       <c r="D267" s="22">
         <v>128</v>
       </c>
-      <c r="E267" s="23">
+      <c r="E267" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -24310,7 +24468,7 @@
       <c r="D268" s="22">
         <v>109</v>
       </c>
-      <c r="E268" s="23">
+      <c r="E268" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -24327,7 +24485,7 @@
       <c r="D269" s="22">
         <v>149</v>
       </c>
-      <c r="E269" s="23">
+      <c r="E269" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -24344,7 +24502,7 @@
       <c r="D270" s="22">
         <v>159</v>
       </c>
-      <c r="E270" s="23">
+      <c r="E270" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -24361,7 +24519,7 @@
       <c r="D271" s="22">
         <v>161</v>
       </c>
-      <c r="E271" s="23">
+      <c r="E271" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24378,7 +24536,7 @@
       <c r="D272" s="22">
         <v>174</v>
       </c>
-      <c r="E272" s="23">
+      <c r="E272" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -24395,7 +24553,7 @@
       <c r="D273" s="22">
         <v>168</v>
       </c>
-      <c r="E273" s="23">
+      <c r="E273" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -24412,7 +24570,7 @@
       <c r="D274" s="22">
         <v>167</v>
       </c>
-      <c r="E274" s="23">
+      <c r="E274" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -24429,7 +24587,7 @@
       <c r="D275" s="22">
         <v>141</v>
       </c>
-      <c r="E275" s="23">
+      <c r="E275" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -24446,7 +24604,7 @@
       <c r="D276" s="22">
         <v>127</v>
       </c>
-      <c r="E276" s="23">
+      <c r="E276" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -24463,7 +24621,7 @@
       <c r="D277" s="22">
         <v>36</v>
       </c>
-      <c r="E277" s="23">
+      <c r="E277" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -24480,7 +24638,7 @@
       <c r="D278" s="22">
         <v>179</v>
       </c>
-      <c r="E278" s="23">
+      <c r="E278" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24497,7 +24655,7 @@
       <c r="D279" s="22">
         <v>170</v>
       </c>
-      <c r="E279" s="23">
+      <c r="E279" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24514,7 +24672,7 @@
       <c r="D280" s="22">
         <v>169</v>
       </c>
-      <c r="E280" s="23">
+      <c r="E280" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -24531,7 +24689,7 @@
       <c r="D281" s="22">
         <v>169</v>
       </c>
-      <c r="E281" s="23">
+      <c r="E281" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24548,7 +24706,7 @@
       <c r="D282" s="22">
         <v>168</v>
       </c>
-      <c r="E282" s="23">
+      <c r="E282" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24565,7 +24723,7 @@
       <c r="D283" s="22">
         <v>185</v>
       </c>
-      <c r="E283" s="23">
+      <c r="E283" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24582,7 +24740,7 @@
       <c r="D284" s="22">
         <v>169</v>
       </c>
-      <c r="E284" s="23">
+      <c r="E284" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -24599,7 +24757,7 @@
       <c r="D285" s="22">
         <v>179</v>
       </c>
-      <c r="E285" s="23">
+      <c r="E285" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24616,7 +24774,7 @@
       <c r="D286" s="22">
         <v>88</v>
       </c>
-      <c r="E286" s="23">
+      <c r="E286" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -24633,7 +24791,7 @@
       <c r="D287" s="22">
         <v>52</v>
       </c>
-      <c r="E287" s="23">
+      <c r="E287" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -24650,7 +24808,7 @@
       <c r="D288" s="22">
         <v>150</v>
       </c>
-      <c r="E288" s="23">
+      <c r="E288" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -24667,7 +24825,7 @@
       <c r="D289" s="22">
         <v>163</v>
       </c>
-      <c r="E289" s="23">
+      <c r="E289" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24684,7 +24842,7 @@
       <c r="D290" s="22">
         <v>163.08000000000001</v>
       </c>
-      <c r="E290" s="23">
+      <c r="E290" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -24701,7 +24859,7 @@
       <c r="D291" s="22">
         <v>109</v>
       </c>
-      <c r="E291" s="23">
+      <c r="E291" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -24718,7 +24876,7 @@
       <c r="D292" s="22">
         <v>154</v>
       </c>
-      <c r="E292" s="23">
+      <c r="E292" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24735,7 +24893,7 @@
       <c r="D293" s="22">
         <v>162</v>
       </c>
-      <c r="E293" s="23">
+      <c r="E293" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -24752,7 +24910,7 @@
       <c r="D294" s="22">
         <v>163</v>
       </c>
-      <c r="E294" s="23">
+      <c r="E294" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24769,7 +24927,7 @@
       <c r="D295" s="22">
         <v>154</v>
       </c>
-      <c r="E295" s="23">
+      <c r="E295" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -24786,7 +24944,7 @@
       <c r="D296" s="22">
         <v>27</v>
       </c>
-      <c r="E296" s="23">
+      <c r="E296" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -24803,7 +24961,7 @@
       <c r="D297" s="22">
         <v>88</v>
       </c>
-      <c r="E297" s="23">
+      <c r="E297" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -24820,7 +24978,7 @@
       <c r="D298" s="22">
         <v>149</v>
       </c>
-      <c r="E298" s="23">
+      <c r="E298" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -24837,7 +24995,7 @@
       <c r="D299" s="22">
         <v>205</v>
       </c>
-      <c r="E299" s="23">
+      <c r="E299" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24854,7 +25012,7 @@
       <c r="D300" s="22">
         <v>169</v>
       </c>
-      <c r="E300" s="23">
+      <c r="E300" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24871,7 +25029,7 @@
       <c r="D301" s="22">
         <v>88</v>
       </c>
-      <c r="E301" s="23">
+      <c r="E301" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -24888,7 +25046,7 @@
       <c r="D302" s="22">
         <v>148</v>
       </c>
-      <c r="E302" s="23">
+      <c r="E302" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24905,7 +25063,7 @@
       <c r="D303" s="22">
         <v>171</v>
       </c>
-      <c r="E303" s="23">
+      <c r="E303" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24922,7 +25080,7 @@
       <c r="D304" s="22">
         <v>194</v>
       </c>
-      <c r="E304" s="23">
+      <c r="E304" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24939,7 +25097,7 @@
       <c r="D305" s="22">
         <v>148</v>
       </c>
-      <c r="E305" s="23">
+      <c r="E305" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24956,7 +25114,7 @@
       <c r="D306" s="22">
         <v>112</v>
       </c>
-      <c r="E306" s="23">
+      <c r="E306" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -24973,7 +25131,7 @@
       <c r="D307" s="22">
         <v>177</v>
       </c>
-      <c r="E307" s="23">
+      <c r="E307" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -24990,7 +25148,7 @@
       <c r="D308" s="22">
         <v>237</v>
       </c>
-      <c r="E308" s="23">
+      <c r="E308" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -25007,7 +25165,7 @@
       <c r="D309" s="22">
         <v>175</v>
       </c>
-      <c r="E309" s="23">
+      <c r="E309" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25024,7 +25182,7 @@
       <c r="D310" s="22">
         <v>148</v>
       </c>
-      <c r="E310" s="23">
+      <c r="E310" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25041,7 +25199,7 @@
       <c r="D311" s="22">
         <v>88</v>
       </c>
-      <c r="E311" s="23">
+      <c r="E311" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -25058,7 +25216,7 @@
       <c r="D312" s="22">
         <v>165</v>
       </c>
-      <c r="E312" s="23">
+      <c r="E312" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -25075,7 +25233,7 @@
       <c r="D313" s="22">
         <v>185</v>
       </c>
-      <c r="E313" s="23">
+      <c r="E313" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -25092,7 +25250,7 @@
       <c r="D314" s="22">
         <v>129</v>
       </c>
-      <c r="E314" s="23">
+      <c r="E314" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -25109,7 +25267,7 @@
       <c r="D315" s="22">
         <v>217</v>
       </c>
-      <c r="E315" s="23">
+      <c r="E315" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -25126,7 +25284,7 @@
       <c r="D316" s="22">
         <v>148</v>
       </c>
-      <c r="E316" s="23">
+      <c r="E316" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25143,7 +25301,7 @@
       <c r="D317" s="22">
         <v>154</v>
       </c>
-      <c r="E317" s="23">
+      <c r="E317" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25160,7 +25318,7 @@
       <c r="D318" s="22">
         <v>163</v>
       </c>
-      <c r="E318" s="23">
+      <c r="E318" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25177,7 +25335,7 @@
       <c r="D319" s="22">
         <v>148</v>
       </c>
-      <c r="E319" s="23">
+      <c r="E319" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -25194,7 +25352,7 @@
       <c r="D320" s="22">
         <v>171</v>
       </c>
-      <c r="E320" s="23">
+      <c r="E320" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25211,7 +25369,7 @@
       <c r="D321" s="22">
         <v>148</v>
       </c>
-      <c r="E321" s="23">
+      <c r="E321" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25228,7 +25386,7 @@
       <c r="D322" s="22">
         <v>205</v>
       </c>
-      <c r="E322" s="23">
+      <c r="E322" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25245,7 +25403,7 @@
       <c r="D323" s="22">
         <v>182.49</v>
       </c>
-      <c r="E323" s="23">
+      <c r="E323" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -25258,7 +25416,7 @@
       </c>
       <c r="C324" s="22"/>
       <c r="D324" s="22"/>
-      <c r="E324" s="23">
+      <c r="E324" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -25275,7 +25433,7 @@
       <c r="D325" s="22">
         <v>129</v>
       </c>
-      <c r="E325" s="23">
+      <c r="E325" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25292,7 +25450,7 @@
       <c r="D326" s="22">
         <v>148</v>
       </c>
-      <c r="E326" s="23">
+      <c r="E326" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -25309,7 +25467,7 @@
       <c r="D327" s="22">
         <v>160</v>
       </c>
-      <c r="E327" s="23">
+      <c r="E327" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25326,7 +25484,7 @@
       <c r="D328" s="22">
         <v>168</v>
       </c>
-      <c r="E328" s="23">
+      <c r="E328" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25339,7 +25497,7 @@
       </c>
       <c r="C329" s="22"/>
       <c r="D329" s="22"/>
-      <c r="E329" s="23">
+      <c r="E329" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -25356,7 +25514,7 @@
       <c r="D330" s="22">
         <v>127</v>
       </c>
-      <c r="E330" s="23">
+      <c r="E330" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25373,7 +25531,7 @@
       <c r="D331" s="22">
         <v>52</v>
       </c>
-      <c r="E331" s="23">
+      <c r="E331" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -25390,7 +25548,7 @@
       <c r="D332" s="22">
         <v>64</v>
       </c>
-      <c r="E332" s="23">
+      <c r="E332" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -25407,7 +25565,7 @@
       <c r="D333" s="22">
         <v>185</v>
       </c>
-      <c r="E333" s="23">
+      <c r="E333" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25424,7 +25582,7 @@
       <c r="D334" s="22">
         <v>159</v>
       </c>
-      <c r="E334" s="23">
+      <c r="E334" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -25441,7 +25599,7 @@
       <c r="D335" s="22">
         <v>129</v>
       </c>
-      <c r="E335" s="23">
+      <c r="E335" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -25458,7 +25616,7 @@
       <c r="D336" s="22">
         <v>177</v>
       </c>
-      <c r="E336" s="23">
+      <c r="E336" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -25471,7 +25629,7 @@
       </c>
       <c r="C337" s="22"/>
       <c r="D337" s="22"/>
-      <c r="E337" s="23">
+      <c r="E337" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -25488,7 +25646,7 @@
       <c r="D338" s="22">
         <v>148</v>
       </c>
-      <c r="E338" s="23">
+      <c r="E338" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25505,7 +25663,7 @@
       <c r="D339" s="22">
         <v>179</v>
       </c>
-      <c r="E339" s="23">
+      <c r="E339" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25522,7 +25680,7 @@
       <c r="D340" s="22">
         <v>182</v>
       </c>
-      <c r="E340" s="23">
+      <c r="E340" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25539,7 +25697,7 @@
       <c r="D341" s="22">
         <v>177</v>
       </c>
-      <c r="E341" s="23">
+      <c r="E341" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -25556,7 +25714,7 @@
       <c r="D342" s="22">
         <v>109</v>
       </c>
-      <c r="E342" s="23">
+      <c r="E342" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -25573,7 +25731,7 @@
       <c r="D343" s="22">
         <v>168</v>
       </c>
-      <c r="E343" s="23">
+      <c r="E343" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25590,7 +25748,7 @@
       <c r="D344" s="22">
         <v>151</v>
       </c>
-      <c r="E344" s="23">
+      <c r="E344" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -25607,7 +25765,7 @@
       <c r="D345" s="22">
         <v>163</v>
       </c>
-      <c r="E345" s="23">
+      <c r="E345" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -25624,7 +25782,7 @@
       <c r="D346" s="22">
         <v>139</v>
       </c>
-      <c r="E346" s="23">
+      <c r="E346" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25641,7 +25799,7 @@
       <c r="D347" s="22">
         <v>189</v>
       </c>
-      <c r="E347" s="23">
+      <c r="E347" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -25658,7 +25816,7 @@
       <c r="D348" s="22">
         <v>179</v>
       </c>
-      <c r="E348" s="23">
+      <c r="E348" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -25675,7 +25833,7 @@
       <c r="D349" s="22">
         <v>165</v>
       </c>
-      <c r="E349" s="23">
+      <c r="E349" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25692,7 +25850,7 @@
       <c r="D350" s="22">
         <v>171</v>
       </c>
-      <c r="E350" s="23">
+      <c r="E350" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25709,7 +25867,7 @@
       <c r="D351" s="22">
         <v>183</v>
       </c>
-      <c r="E351" s="23">
+      <c r="E351" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -25726,7 +25884,7 @@
       <c r="D352" s="22">
         <v>176</v>
       </c>
-      <c r="E352" s="23">
+      <c r="E352" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25743,7 +25901,7 @@
       <c r="D353" s="22">
         <v>172</v>
       </c>
-      <c r="E353" s="23">
+      <c r="E353" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25760,7 +25918,7 @@
       <c r="D354" s="22">
         <v>145</v>
       </c>
-      <c r="E354" s="23">
+      <c r="E354" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25777,7 +25935,7 @@
       <c r="D355" s="22">
         <v>54</v>
       </c>
-      <c r="E355" s="23">
+      <c r="E355" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -25790,7 +25948,7 @@
       </c>
       <c r="C356" s="22"/>
       <c r="D356" s="22"/>
-      <c r="E356" s="23">
+      <c r="E356" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -25807,7 +25965,7 @@
       <c r="D357" s="22">
         <v>120</v>
       </c>
-      <c r="E357" s="23">
+      <c r="E357" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -25824,7 +25982,7 @@
       <c r="D358" s="22">
         <v>122</v>
       </c>
-      <c r="E358" s="23">
+      <c r="E358" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25841,7 +25999,7 @@
       <c r="D359" s="22">
         <v>157</v>
       </c>
-      <c r="E359" s="23">
+      <c r="E359" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25858,7 +26016,7 @@
       <c r="D360" s="22">
         <v>169</v>
       </c>
-      <c r="E360" s="23">
+      <c r="E360" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -25875,7 +26033,7 @@
       <c r="D361" s="22">
         <v>128</v>
       </c>
-      <c r="E361" s="23">
+      <c r="E361" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -25892,7 +26050,7 @@
       <c r="D362" s="22">
         <v>36</v>
       </c>
-      <c r="E362" s="23">
+      <c r="E362" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -25909,7 +26067,7 @@
       <c r="D363" s="22">
         <v>169</v>
       </c>
-      <c r="E363" s="23">
+      <c r="E363" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -25926,7 +26084,7 @@
       <c r="D364" s="22">
         <v>178</v>
       </c>
-      <c r="E364" s="23">
+      <c r="E364" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -25943,7 +26101,7 @@
       <c r="D365" s="22">
         <v>156</v>
       </c>
-      <c r="E365" s="23">
+      <c r="E365" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -25960,7 +26118,7 @@
       <c r="D366" s="22">
         <v>182</v>
       </c>
-      <c r="E366" s="23">
+      <c r="E366" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -25977,7 +26135,7 @@
       <c r="D367" s="22">
         <v>118</v>
       </c>
-      <c r="E367" s="23">
+      <c r="E367" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -25994,7 +26152,7 @@
       <c r="D368" s="22">
         <v>151</v>
       </c>
-      <c r="E368" s="23">
+      <c r="E368" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -26011,7 +26169,7 @@
       <c r="D369" s="22">
         <v>183</v>
       </c>
-      <c r="E369" s="23">
+      <c r="E369" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -26028,7 +26186,7 @@
       <c r="D370" s="22">
         <v>163</v>
       </c>
-      <c r="E370" s="23">
+      <c r="E370" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -26045,7 +26203,7 @@
       <c r="D371" s="22">
         <v>168</v>
       </c>
-      <c r="E371" s="23">
+      <c r="E371" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -26062,7 +26220,7 @@
       <c r="D372" s="22">
         <v>248</v>
       </c>
-      <c r="E372" s="23">
+      <c r="E372" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -26079,7 +26237,7 @@
       <c r="D373" s="22">
         <v>183</v>
       </c>
-      <c r="E373" s="23">
+      <c r="E373" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -26096,7 +26254,7 @@
       <c r="D374" s="22">
         <v>141</v>
       </c>
-      <c r="E374" s="23">
+      <c r="E374" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -26113,7 +26271,7 @@
       <c r="D375" s="22">
         <v>181</v>
       </c>
-      <c r="E375" s="23">
+      <c r="E375" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -26130,7 +26288,7 @@
       <c r="D376" s="22">
         <v>40</v>
       </c>
-      <c r="E376" s="23">
+      <c r="E376" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -26147,7 +26305,7 @@
       <c r="D377" s="22">
         <v>183</v>
       </c>
-      <c r="E377" s="23">
+      <c r="E377" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -26164,7 +26322,7 @@
       <c r="D378" s="22">
         <v>183</v>
       </c>
-      <c r="E378" s="23">
+      <c r="E378" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -26181,7 +26339,7 @@
       <c r="D379" s="22">
         <v>180</v>
       </c>
-      <c r="E379" s="23">
+      <c r="E379" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -26198,7 +26356,7 @@
       <c r="D380" s="22">
         <v>186</v>
       </c>
-      <c r="E380" s="23">
+      <c r="E380" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -26215,7 +26373,7 @@
       <c r="D381" s="22">
         <v>91</v>
       </c>
-      <c r="E381" s="23">
+      <c r="E381" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -26232,7 +26390,7 @@
       <c r="D382" s="22">
         <v>44</v>
       </c>
-      <c r="E382" s="23">
+      <c r="E382" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -26249,7 +26407,7 @@
       <c r="D383" s="22">
         <v>228</v>
       </c>
-      <c r="E383" s="23">
+      <c r="E383" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -26266,7 +26424,7 @@
       <c r="D384" s="22">
         <v>204</v>
       </c>
-      <c r="E384" s="23">
+      <c r="E384" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -26283,7 +26441,7 @@
       <c r="D385" s="22">
         <v>37</v>
       </c>
-      <c r="E385" s="23">
+      <c r="E385" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -26300,7 +26458,7 @@
       <c r="D386" s="22">
         <v>37</v>
       </c>
-      <c r="E386" s="23">
+      <c r="E386" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -26317,7 +26475,7 @@
       <c r="D387" s="22">
         <v>36</v>
       </c>
-      <c r="E387" s="23">
+      <c r="E387" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -26330,7 +26488,7 @@
       </c>
       <c r="C388" s="22"/>
       <c r="D388" s="22"/>
-      <c r="E388" s="23">
+      <c r="E388" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -26343,7 +26501,7 @@
       </c>
       <c r="C389" s="22"/>
       <c r="D389" s="22"/>
-      <c r="E389" s="23">
+      <c r="E389" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -26360,7 +26518,7 @@
       <c r="D390" s="22">
         <v>177</v>
       </c>
-      <c r="E390" s="23">
+      <c r="E390" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -26373,7 +26531,7 @@
       </c>
       <c r="C391" s="22"/>
       <c r="D391" s="22"/>
-      <c r="E391" s="23">
+      <c r="E391" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -26390,7 +26548,7 @@
       <c r="D392" s="22">
         <v>151</v>
       </c>
-      <c r="E392" s="23">
+      <c r="E392" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -26407,7 +26565,7 @@
       <c r="D393" s="22">
         <v>178</v>
       </c>
-      <c r="E393" s="23">
+      <c r="E393" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -26420,7 +26578,7 @@
       </c>
       <c r="C394" s="22"/>
       <c r="D394" s="22"/>
-      <c r="E394" s="23">
+      <c r="E394" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -26433,7 +26591,7 @@
       </c>
       <c r="C395" s="22"/>
       <c r="D395" s="22"/>
-      <c r="E395" s="23">
+      <c r="E395" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -26450,7 +26608,7 @@
       <c r="D396" s="22">
         <v>174</v>
       </c>
-      <c r="E396" s="23">
+      <c r="E396" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -26463,7 +26621,7 @@
       </c>
       <c r="C397" s="22"/>
       <c r="D397" s="22"/>
-      <c r="E397" s="23">
+      <c r="E397" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -26476,7 +26634,7 @@
       </c>
       <c r="C398" s="22"/>
       <c r="D398" s="22"/>
-      <c r="E398" s="23">
+      <c r="E398" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -26489,7 +26647,7 @@
       </c>
       <c r="C399" s="22"/>
       <c r="D399" s="22"/>
-      <c r="E399" s="23">
+      <c r="E399" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -26506,7 +26664,7 @@
       <c r="D400" s="22">
         <v>168</v>
       </c>
-      <c r="E400" s="23">
+      <c r="E400" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -26519,7 +26677,7 @@
       </c>
       <c r="C401" s="22"/>
       <c r="D401" s="22"/>
-      <c r="E401" s="23">
+      <c r="E401" s="47">
         <v>0.46</v>
       </c>
     </row>
@@ -26532,7 +26690,7 @@
       </c>
       <c r="C402" s="22"/>
       <c r="D402" s="22"/>
-      <c r="E402" s="23">
+      <c r="E402" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -26549,7 +26707,7 @@
       <c r="D403" s="22">
         <v>178</v>
       </c>
-      <c r="E403" s="23">
+      <c r="E403" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -26566,7 +26724,7 @@
       <c r="D404" s="22">
         <v>148</v>
       </c>
-      <c r="E404" s="23">
+      <c r="E404" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -26583,7 +26741,7 @@
       <c r="D405" s="22">
         <v>38</v>
       </c>
-      <c r="E405" s="23">
+      <c r="E405" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -26600,7 +26758,7 @@
       <c r="D406" s="22">
         <v>127</v>
       </c>
-      <c r="E406" s="23">
+      <c r="E406" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -26617,7 +26775,7 @@
       <c r="D407" s="22">
         <v>168</v>
       </c>
-      <c r="E407" s="23">
+      <c r="E407" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -26630,7 +26788,7 @@
       </c>
       <c r="C408" s="22"/>
       <c r="D408" s="22"/>
-      <c r="E408" s="23">
+      <c r="E408" s="47">
         <v>0.46</v>
       </c>
     </row>
@@ -26643,7 +26801,7 @@
       </c>
       <c r="C409" s="22"/>
       <c r="D409" s="22"/>
-      <c r="E409" s="23">
+      <c r="E409" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -26656,7 +26814,7 @@
       </c>
       <c r="C410" s="22"/>
       <c r="D410" s="22"/>
-      <c r="E410" s="23">
+      <c r="E410" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -26673,7 +26831,7 @@
       <c r="D411" s="22">
         <v>159</v>
       </c>
-      <c r="E411" s="23">
+      <c r="E411" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -26690,7 +26848,7 @@
       <c r="D412" s="22">
         <v>151</v>
       </c>
-      <c r="E412" s="23">
+      <c r="E412" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -26707,7 +26865,7 @@
       <c r="D413" s="22">
         <v>37</v>
       </c>
-      <c r="E413" s="23">
+      <c r="E413" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -26724,7 +26882,7 @@
       <c r="D414" s="22">
         <v>183</v>
       </c>
-      <c r="E414" s="23">
+      <c r="E414" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -26737,7 +26895,7 @@
       </c>
       <c r="C415" s="22"/>
       <c r="D415" s="22"/>
-      <c r="E415" s="23">
+      <c r="E415" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -26750,7 +26908,7 @@
       </c>
       <c r="C416" s="22"/>
       <c r="D416" s="22"/>
-      <c r="E416" s="23">
+      <c r="E416" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -26767,7 +26925,7 @@
       <c r="D417" s="22">
         <v>180</v>
       </c>
-      <c r="E417" s="23">
+      <c r="E417" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -26784,7 +26942,7 @@
       <c r="D418" s="22">
         <v>162</v>
       </c>
-      <c r="E418" s="23">
+      <c r="E418" s="47">
         <v>0.23</v>
       </c>
     </row>
@@ -26797,7 +26955,7 @@
       </c>
       <c r="C419" s="22"/>
       <c r="D419" s="22"/>
-      <c r="E419" s="23">
+      <c r="E419" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -26810,7 +26968,7 @@
       </c>
       <c r="C420" s="22"/>
       <c r="D420" s="22"/>
-      <c r="E420" s="23">
+      <c r="E420" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -26823,7 +26981,7 @@
       </c>
       <c r="C421" s="22"/>
       <c r="D421" s="22"/>
-      <c r="E421" s="23">
+      <c r="E421" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -26840,7 +26998,7 @@
       <c r="D422" s="22">
         <v>118</v>
       </c>
-      <c r="E422" s="23">
+      <c r="E422" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -26857,7 +27015,7 @@
       <c r="D423" s="22">
         <v>64</v>
       </c>
-      <c r="E423" s="23">
+      <c r="E423" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -26870,7 +27028,7 @@
       </c>
       <c r="C424" s="22"/>
       <c r="D424" s="22"/>
-      <c r="E424" s="23">
+      <c r="E424" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -26887,7 +27045,7 @@
       <c r="D425" s="22">
         <v>240</v>
       </c>
-      <c r="E425" s="23">
+      <c r="E425" s="47">
         <v>0.46</v>
       </c>
     </row>
@@ -26900,7 +27058,7 @@
       </c>
       <c r="C426" s="22"/>
       <c r="D426" s="22"/>
-      <c r="E426" s="23">
+      <c r="E426" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -26917,7 +27075,7 @@
       <c r="D427" s="22">
         <v>138</v>
       </c>
-      <c r="E427" s="23">
+      <c r="E427" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -26934,7 +27092,7 @@
       <c r="D428" s="22">
         <v>165</v>
       </c>
-      <c r="E428" s="23">
+      <c r="E428" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -26947,7 +27105,7 @@
       </c>
       <c r="C429" s="22"/>
       <c r="D429" s="22"/>
-      <c r="E429" s="23">
+      <c r="E429" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -26960,7 +27118,7 @@
       </c>
       <c r="C430" s="22"/>
       <c r="D430" s="22"/>
-      <c r="E430" s="23">
+      <c r="E430" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -26977,7 +27135,7 @@
       <c r="D431" s="22">
         <v>51</v>
       </c>
-      <c r="E431" s="23">
+      <c r="E431" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -26990,7 +27148,7 @@
       </c>
       <c r="C432" s="22"/>
       <c r="D432" s="22"/>
-      <c r="E432" s="23">
+      <c r="E432" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -27003,7 +27161,7 @@
       </c>
       <c r="C433" s="22"/>
       <c r="D433" s="22"/>
-      <c r="E433" s="23">
+      <c r="E433" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27020,7 +27178,7 @@
       <c r="D434" s="22">
         <v>168</v>
       </c>
-      <c r="E434" s="23">
+      <c r="E434" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -27033,7 +27191,7 @@
       </c>
       <c r="C435" s="22"/>
       <c r="D435" s="22"/>
-      <c r="E435" s="23">
+      <c r="E435" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -27046,7 +27204,7 @@
       </c>
       <c r="C436" s="22"/>
       <c r="D436" s="22"/>
-      <c r="E436" s="23">
+      <c r="E436" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27059,7 +27217,7 @@
       </c>
       <c r="C437" s="22"/>
       <c r="D437" s="22"/>
-      <c r="E437" s="23">
+      <c r="E437" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -27076,7 +27234,7 @@
       <c r="D438" s="22">
         <v>180</v>
       </c>
-      <c r="E438" s="23">
+      <c r="E438" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -27093,7 +27251,7 @@
       <c r="D439" s="22">
         <v>145</v>
       </c>
-      <c r="E439" s="23">
+      <c r="E439" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -27106,7 +27264,7 @@
       </c>
       <c r="C440" s="22"/>
       <c r="D440" s="22"/>
-      <c r="E440" s="23">
+      <c r="E440" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27119,7 +27277,7 @@
       </c>
       <c r="C441" s="22"/>
       <c r="D441" s="22"/>
-      <c r="E441" s="23">
+      <c r="E441" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -27132,7 +27290,7 @@
       </c>
       <c r="C442" s="22"/>
       <c r="D442" s="22"/>
-      <c r="E442" s="23">
+      <c r="E442" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27145,7 +27303,7 @@
       </c>
       <c r="C443" s="22"/>
       <c r="D443" s="22"/>
-      <c r="E443" s="23">
+      <c r="E443" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -27158,7 +27316,7 @@
       </c>
       <c r="C444" s="22"/>
       <c r="D444" s="22"/>
-      <c r="E444" s="23">
+      <c r="E444" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -27175,7 +27333,7 @@
       <c r="D445" s="22">
         <v>165</v>
       </c>
-      <c r="E445" s="23">
+      <c r="E445" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27188,7 +27346,7 @@
       </c>
       <c r="C446" s="22"/>
       <c r="D446" s="22"/>
-      <c r="E446" s="23">
+      <c r="E446" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -27201,7 +27359,7 @@
       </c>
       <c r="C447" s="22"/>
       <c r="D447" s="22"/>
-      <c r="E447" s="23">
+      <c r="E447" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -27214,7 +27372,7 @@
       </c>
       <c r="C448" s="22"/>
       <c r="D448" s="22"/>
-      <c r="E448" s="23">
+      <c r="E448" s="47">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -27227,7 +27385,7 @@
       </c>
       <c r="C449" s="22"/>
       <c r="D449" s="22"/>
-      <c r="E449" s="23">
+      <c r="E449" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -27240,7 +27398,7 @@
       </c>
       <c r="C450" s="22"/>
       <c r="D450" s="22"/>
-      <c r="E450" s="23">
+      <c r="E450" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -27253,7 +27411,7 @@
       </c>
       <c r="C451" s="22"/>
       <c r="D451" s="22"/>
-      <c r="E451" s="23">
+      <c r="E451" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -27270,7 +27428,7 @@
       <c r="D452" s="22">
         <v>64</v>
       </c>
-      <c r="E452" s="23">
+      <c r="E452" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -27283,7 +27441,7 @@
       </c>
       <c r="C453" s="22"/>
       <c r="D453" s="22"/>
-      <c r="E453" s="23">
+      <c r="E453" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27300,7 +27458,7 @@
       <c r="D454" s="22">
         <v>30</v>
       </c>
-      <c r="E454" s="23">
+      <c r="E454" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -27313,7 +27471,7 @@
       </c>
       <c r="C455" s="22"/>
       <c r="D455" s="22"/>
-      <c r="E455" s="23">
+      <c r="E455" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27326,7 +27484,7 @@
       </c>
       <c r="C456" s="22"/>
       <c r="D456" s="22"/>
-      <c r="E456" s="23">
+      <c r="E456" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -27343,7 +27501,7 @@
       <c r="D457" s="22">
         <v>197</v>
       </c>
-      <c r="E457" s="23">
+      <c r="E457" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -27360,7 +27518,7 @@
       <c r="D458" s="22">
         <v>197</v>
       </c>
-      <c r="E458" s="23">
+      <c r="E458" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -27373,7 +27531,7 @@
       </c>
       <c r="C459" s="22"/>
       <c r="D459" s="22"/>
-      <c r="E459" s="23">
+      <c r="E459" s="47">
         <v>0.46</v>
       </c>
     </row>
@@ -27386,7 +27544,7 @@
       </c>
       <c r="C460" s="22"/>
       <c r="D460" s="22"/>
-      <c r="E460" s="23">
+      <c r="E460" s="47">
         <v>0.46</v>
       </c>
     </row>
@@ -27403,7 +27561,7 @@
       <c r="D461" s="22">
         <v>91</v>
       </c>
-      <c r="E461" s="23">
+      <c r="E461" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -27416,7 +27574,7 @@
       </c>
       <c r="C462" s="22"/>
       <c r="D462" s="22"/>
-      <c r="E462" s="23">
+      <c r="E462" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27433,7 +27591,7 @@
       <c r="D463" s="22">
         <v>206</v>
       </c>
-      <c r="E463" s="23">
+      <c r="E463" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27450,7 +27608,7 @@
       <c r="D464" s="22">
         <v>206</v>
       </c>
-      <c r="E464" s="23">
+      <c r="E464" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27463,7 +27621,7 @@
       </c>
       <c r="C465" s="22"/>
       <c r="D465" s="22"/>
-      <c r="E465" s="23">
+      <c r="E465" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27476,7 +27634,7 @@
       </c>
       <c r="C466" s="22"/>
       <c r="D466" s="22"/>
-      <c r="E466" s="23">
+      <c r="E466" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27489,7 +27647,7 @@
       </c>
       <c r="C467" s="22"/>
       <c r="D467" s="22"/>
-      <c r="E467" s="23">
+      <c r="E467" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27502,7 +27660,7 @@
       </c>
       <c r="C468" s="22"/>
       <c r="D468" s="22"/>
-      <c r="E468" s="23">
+      <c r="E468" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27515,7 +27673,7 @@
       </c>
       <c r="C469" s="22"/>
       <c r="D469" s="22"/>
-      <c r="E469" s="23">
+      <c r="E469" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -27528,7 +27686,7 @@
       </c>
       <c r="C470" s="22"/>
       <c r="D470" s="22"/>
-      <c r="E470" s="23">
+      <c r="E470" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27541,7 +27699,7 @@
       </c>
       <c r="C471" s="22"/>
       <c r="D471" s="22"/>
-      <c r="E471" s="23">
+      <c r="E471" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -27558,7 +27716,7 @@
       <c r="D472" s="22">
         <v>139</v>
       </c>
-      <c r="E472" s="23">
+      <c r="E472" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -27571,7 +27729,7 @@
       </c>
       <c r="C473" s="22"/>
       <c r="D473" s="22"/>
-      <c r="E473" s="23">
+      <c r="E473" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27588,7 +27746,7 @@
       <c r="D474" s="22">
         <v>165</v>
       </c>
-      <c r="E474" s="23">
+      <c r="E474" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27601,7 +27759,7 @@
       </c>
       <c r="C475" s="22"/>
       <c r="D475" s="22"/>
-      <c r="E475" s="23">
+      <c r="E475" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -27614,7 +27772,7 @@
       </c>
       <c r="C476" s="22"/>
       <c r="D476" s="22"/>
-      <c r="E476" s="23">
+      <c r="E476" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -27627,7 +27785,7 @@
       </c>
       <c r="C477" s="22"/>
       <c r="D477" s="22"/>
-      <c r="E477" s="23">
+      <c r="E477" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27644,7 +27802,7 @@
       <c r="D478" s="22">
         <v>185</v>
       </c>
-      <c r="E478" s="23">
+      <c r="E478" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27657,7 +27815,7 @@
       </c>
       <c r="C479" s="22"/>
       <c r="D479" s="22"/>
-      <c r="E479" s="23">
+      <c r="E479" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -27670,7 +27828,7 @@
       </c>
       <c r="C480" s="22"/>
       <c r="D480" s="22"/>
-      <c r="E480" s="23">
+      <c r="E480" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -27683,7 +27841,7 @@
       </c>
       <c r="C481" s="22"/>
       <c r="D481" s="22"/>
-      <c r="E481" s="23">
+      <c r="E481" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -27700,7 +27858,7 @@
       <c r="D482" s="22">
         <v>149</v>
       </c>
-      <c r="E482" s="23">
+      <c r="E482" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27713,7 +27871,7 @@
       </c>
       <c r="C483" s="22"/>
       <c r="D483" s="22"/>
-      <c r="E483" s="23">
+      <c r="E483" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27726,7 +27884,7 @@
       </c>
       <c r="C484" s="22"/>
       <c r="D484" s="22"/>
-      <c r="E484" s="23">
+      <c r="E484" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27739,7 +27897,7 @@
       </c>
       <c r="C485" s="22"/>
       <c r="D485" s="22"/>
-      <c r="E485" s="23">
+      <c r="E485" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27752,7 +27910,7 @@
       </c>
       <c r="C486" s="22"/>
       <c r="D486" s="22"/>
-      <c r="E486" s="23">
+      <c r="E486" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27765,7 +27923,7 @@
       </c>
       <c r="C487" s="22"/>
       <c r="D487" s="22"/>
-      <c r="E487" s="23">
+      <c r="E487" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27778,7 +27936,7 @@
       </c>
       <c r="C488" s="22"/>
       <c r="D488" s="22"/>
-      <c r="E488" s="23">
+      <c r="E488" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27793,7 +27951,7 @@
         <v>1</v>
       </c>
       <c r="D489" s="22"/>
-      <c r="E489" s="23">
+      <c r="E489" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -27808,7 +27966,7 @@
         <v>1</v>
       </c>
       <c r="D490" s="22"/>
-      <c r="E490" s="23">
+      <c r="E490" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -27825,7 +27983,7 @@
       <c r="D491" s="22">
         <v>30</v>
       </c>
-      <c r="E491" s="23">
+      <c r="E491" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -27838,7 +27996,7 @@
       </c>
       <c r="C492" s="22"/>
       <c r="D492" s="22"/>
-      <c r="E492" s="23">
+      <c r="E492" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27851,7 +28009,7 @@
       </c>
       <c r="C493" s="22"/>
       <c r="D493" s="22"/>
-      <c r="E493" s="23">
+      <c r="E493" s="47">
         <v>0.46</v>
       </c>
     </row>
@@ -27864,7 +28022,7 @@
       </c>
       <c r="C494" s="22"/>
       <c r="D494" s="22"/>
-      <c r="E494" s="23">
+      <c r="E494" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27881,7 +28039,7 @@
       <c r="D495" s="22">
         <v>129</v>
       </c>
-      <c r="E495" s="23">
+      <c r="E495" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27894,7 +28052,7 @@
       </c>
       <c r="C496" s="22"/>
       <c r="D496" s="22"/>
-      <c r="E496" s="23">
+      <c r="E496" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -27911,7 +28069,7 @@
       <c r="D497" s="22">
         <v>179</v>
       </c>
-      <c r="E497" s="23">
+      <c r="E497" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -27924,7 +28082,7 @@
       </c>
       <c r="C498" s="22"/>
       <c r="D498" s="22"/>
-      <c r="E498" s="23">
+      <c r="E498" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27937,7 +28095,7 @@
       </c>
       <c r="C499" s="22"/>
       <c r="D499" s="22"/>
-      <c r="E499" s="23">
+      <c r="E499" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27950,7 +28108,7 @@
       </c>
       <c r="C500" s="22"/>
       <c r="D500" s="22"/>
-      <c r="E500" s="23">
+      <c r="E500" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27963,7 +28121,7 @@
       </c>
       <c r="C501" s="22"/>
       <c r="D501" s="22"/>
-      <c r="E501" s="23">
+      <c r="E501" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -27976,7 +28134,7 @@
       </c>
       <c r="C502" s="22"/>
       <c r="D502" s="22"/>
-      <c r="E502" s="23">
+      <c r="E502" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -27989,7 +28147,7 @@
       </c>
       <c r="C503" s="22"/>
       <c r="D503" s="22"/>
-      <c r="E503" s="23">
+      <c r="E503" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -28002,7 +28160,7 @@
       </c>
       <c r="C504" s="22"/>
       <c r="D504" s="22"/>
-      <c r="E504" s="23">
+      <c r="E504" s="47">
         <v>0.46</v>
       </c>
     </row>
@@ -28015,7 +28173,7 @@
       </c>
       <c r="C505" s="22"/>
       <c r="D505" s="22"/>
-      <c r="E505" s="23">
+      <c r="E505" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -28032,7 +28190,7 @@
       <c r="D506" s="22">
         <v>59</v>
       </c>
-      <c r="E506" s="23">
+      <c r="E506" s="47">
         <v>0.02</v>
       </c>
     </row>
@@ -28045,7 +28203,7 @@
       </c>
       <c r="C507" s="22"/>
       <c r="D507" s="22"/>
-      <c r="E507" s="23">
+      <c r="E507" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -28058,7 +28216,7 @@
       </c>
       <c r="C508" s="22"/>
       <c r="D508" s="22"/>
-      <c r="E508" s="23">
+      <c r="E508" s="47">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -28071,7 +28229,7 @@
       </c>
       <c r="C509" s="22"/>
       <c r="D509" s="22"/>
-      <c r="E509" s="23">
+      <c r="E509" s="47">
         <v>0.40250000000000002</v>
       </c>
     </row>
@@ -28084,7 +28242,7 @@
       </c>
       <c r="C510" s="22"/>
       <c r="D510" s="22"/>
-      <c r="E510" s="23">
+      <c r="E510" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -28097,7 +28255,7 @@
       </c>
       <c r="C511" s="22"/>
       <c r="D511" s="22"/>
-      <c r="E511" s="23">
+      <c r="E511" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -28110,7 +28268,7 @@
       </c>
       <c r="C512" s="22"/>
       <c r="D512" s="22"/>
-      <c r="E512" s="23">
+      <c r="E512" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -28123,7 +28281,7 @@
       </c>
       <c r="C513" s="22"/>
       <c r="D513" s="22"/>
-      <c r="E513" s="23">
+      <c r="E513" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -28136,7 +28294,7 @@
       </c>
       <c r="C514" s="22"/>
       <c r="D514" s="22"/>
-      <c r="E514" s="23">
+      <c r="E514" s="47">
         <v>0.34499999999999997</v>
       </c>
     </row>
@@ -28149,7 +28307,7 @@
       </c>
       <c r="C515" s="22"/>
       <c r="D515" s="22"/>
-      <c r="E515" s="23">
+      <c r="E515" s="47">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
@@ -28162,7 +28320,7 @@
       </c>
       <c r="C516" s="22"/>
       <c r="D516" s="22"/>
-      <c r="E516" s="23">
+      <c r="E516" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -28175,7 +28333,7 @@
       </c>
       <c r="C517" s="22"/>
       <c r="D517" s="22"/>
-      <c r="E517" s="23">
+      <c r="E517" s="47">
         <v>0.46</v>
       </c>
     </row>
@@ -28188,7 +28346,7 @@
       </c>
       <c r="C518" s="22"/>
       <c r="D518" s="22"/>
-      <c r="E518" s="23">
+      <c r="E518" s="47">
         <v>0.46</v>
       </c>
     </row>
@@ -28201,7 +28359,7 @@
       </c>
       <c r="C519" s="22"/>
       <c r="D519" s="22"/>
-      <c r="E519" s="23">
+      <c r="E519" s="47">
         <v>0.46</v>
       </c>
     </row>
@@ -28214,7 +28372,7 @@
       </c>
       <c r="C520" s="22"/>
       <c r="D520" s="22"/>
-      <c r="E520" s="23">
+      <c r="E520" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -28231,7 +28389,7 @@
       <c r="D521" s="22">
         <v>157</v>
       </c>
-      <c r="E521" s="23">
+      <c r="E521" s="47">
         <v>0.28749999999999998</v>
       </c>
     </row>
@@ -28575,12 +28733,12 @@
       <c r="A3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <f>'Datos CO2 vs IMESI 2023'!K7</f>
         <v>133.20363483685219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J7</f>
@@ -28605,12 +28763,12 @@
       <c r="A4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <f>'Datos CO2 vs IMESI 2023'!K12</f>
         <v>258.08333333333331</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J12</f>
@@ -28810,15 +28968,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA4CAB1-8AB3-4560-9358-C14DA036D1F2}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
-        <v>87</v>
+      <c r="A1" s="35" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -28848,11 +29006,11 @@
       <c r="A4" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>133.20363483685219</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4">
         <v>0.23</v>
@@ -28874,11 +29032,11 @@
       <c r="A5" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="29">
         <v>258.08333333333331</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="4">
         <v>0.46</v>
@@ -29036,12 +29194,12 @@
       <c r="A3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <f>'Datos CO2 vs IMESI 2023'!K7</f>
         <v>133.20363483685219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J7</f>
@@ -29066,19 +29224,19 @@
       <c r="A4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <f>'Datos CO2 vs IMESI 2023'!K12</f>
         <v>258.08333333333331</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J12+0.1</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>17</v>
@@ -29322,12 +29480,12 @@
       <c r="A3" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="29">
         <f>'Datos CO2 vs IMESI 2023'!K7</f>
         <v>133.20363483685219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J7</f>
@@ -29352,19 +29510,19 @@
       <c r="A4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <f>'Datos CO2 vs IMESI 2023'!K12</f>
         <v>258.08333333333331</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J12+0.2</f>
         <v>0.66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>17</v>

--- a/Creación de escenarios.xlsx
+++ b/Creación de escenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emili\PycharmProjects\TesisUY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2531AB1-7FEE-413D-B727-B26386A14483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C6CEEB-93F6-4440-81CE-02FA884BCB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1185" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos CO2 vs IMESI 2023" sheetId="9" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="118">
   <si>
     <t>Categoría de Vehículo</t>
   </si>
@@ -410,15 +410,6 @@
     <t xml:space="preserve">Igual a Escenario 1 pero con Elasticidad diferenciada por precio </t>
   </si>
   <si>
-    <t>CO2: Mediana ponderada por ventas  de Automóviles y SUV gasolina (0 - 1.000 c.c.)</t>
-  </si>
-  <si>
-    <t>CO2: Mediana ponderada por ventas de Automóviles y SUV gasolina (3.000 c.c. - ∞)</t>
-  </si>
-  <si>
-    <t>IMESI: Automóviles y SUV gasolina (3.000 c.c. - ∞) + 10 %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Datos de referencia, alfa, beta </t>
   </si>
   <si>
@@ -461,63 +452,6 @@
     <t>-1,37, -1,87, -2,37. Los vehículos situados en el 25 % más barato de cada categoría tienen una elasticidad diferenciada.</t>
   </si>
   <si>
-    <r>
-      <t>Valor extremo inferior CO</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (g/km)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Valor extremo superior CO</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (g/km)</t>
-    </r>
-  </si>
-  <si>
-    <t>Mediana ponderada por ventas CO2 (g/km)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Automóviles y SUV. Valor límite inferior y superior de IMESI y CO2. </t>
   </si>
   <si>
@@ -530,16 +464,7 @@
     <t>CO2: Valor límite superior para Automóviles y SUV gasolina (3.000 c.c. - ∞)</t>
   </si>
   <si>
-    <t>CO2: Mediana ponderada por ventas  para Automóviles y SUV gasolina (0 - 1.000 c.c.)</t>
-  </si>
-  <si>
-    <t>CO2: Mediana ponderada por ventas para Automóviles y SUV gasolina (3.000 c.c. - ∞)</t>
-  </si>
-  <si>
     <t>Categorías afectadas en el escenario simulado</t>
-  </si>
-  <si>
-    <t>CO2: Mediana ponderada por ventas  para Utilitarios gasolina (0 - 3.500 c.c.)</t>
   </si>
   <si>
     <t>CO2: Valor límite superior para Utilitarios gasolina (0 - 3.500 c.c.)</t>
@@ -569,21 +494,6 @@
     <t xml:space="preserve">Utilitarios.                                                                Tipo de motor: N, MHEV, HEV y PHEV.    </t>
   </si>
   <si>
-    <t>Automóviles y SUV. Mediana ponderada por ventas</t>
-  </si>
-  <si>
-    <t>Utilitarios. Mediana ponderada por ventas.</t>
-  </si>
-  <si>
-    <t>Automóviles y SUV. Mediana ponderada por ventas. Se eleva valor superior de IMESI +20 %</t>
-  </si>
-  <si>
-    <t>Utilitarios. Mediana  ponderada por ventas.</t>
-  </si>
-  <si>
-    <t>Automóviles y SUV. Mediana ponderada por ventas. Se eleva valor superior de IMESI +10 %</t>
-  </si>
-  <si>
     <r>
       <t>Datos de referencia para CO</t>
     </r>
@@ -609,6 +519,100 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (g/km) e IMESI </t>
+    </r>
+  </si>
+  <si>
+    <t>CO₂ promedio ponderado por ventas (g/km)</t>
+  </si>
+  <si>
+    <t>Automóviles y SUV. CO₂ promedio ponderado por ventas</t>
+  </si>
+  <si>
+    <t>CO2: Promedio ponderado por ventas  para Automóviles y SUV gasolina (0 - 1.000 c.c.)</t>
+  </si>
+  <si>
+    <t>CO2: Promedio ponderado por ventas para Automóviles y SUV gasolina (3.000 c.c. - ∞)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">IMESI: Automóviles y SUV gasolina (3.000 c.c. - ∞) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ 10 %</t>
+    </r>
+  </si>
+  <si>
+    <t>Automóviles y SUV. CO₂ promedio ponderado por ventas. Se eleva valor superior de IMESI +10 %</t>
+  </si>
+  <si>
+    <t>Automóviles y SUV. CO₂ promedio ponderado por ventas. Se eleva valor superior de IMESI +20 %</t>
+  </si>
+  <si>
+    <t>CO2: Promedio ponderado por ventas  para Utilitarios gasolina (0 - 3.500 c.c.)</t>
+  </si>
+  <si>
+    <t>Utilitarios. CO₂ promedio ponderado por ventas y valor límite superior</t>
+  </si>
+  <si>
+    <r>
+      <t>Valor límite inferior CO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (g/km)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Valor límite superior CO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (g/km)</t>
     </r>
   </si>
 </sst>
@@ -17629,7 +17633,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17664,10 +17668,10 @@
         <v>68</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="H1" s="28" t="s">
         <v>69</v>
@@ -17679,7 +17683,7 @@
         <v>10</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -18111,8 +18115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8036D19-3FC0-46D3-AEF2-2BEA12C8A4F9}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18126,7 +18130,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -18149,7 +18153,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>34</v>
@@ -18167,7 +18171,7 @@
         <v>133.20363483685219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J7</f>
@@ -18177,7 +18181,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G3" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -18197,17 +18201,17 @@
         <v>258.08333333333331</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D4" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J12+0.2</f>
         <v>0.66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G4" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -18301,7 +18305,7 @@
     <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -18318,7 +18322,7 @@
         <v>33</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>34</v>
@@ -18336,17 +18340,17 @@
         <v>177.8608228100492</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D21" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J4</f>
         <v>0.06</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G21" s="12">
         <f>(D22-D21)/(B22-B21)</f>
@@ -18366,17 +18370,17 @@
         <v>306</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D22" s="4">
         <f>D21*3</f>
         <v>0.18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G22" s="12">
         <f>(D22-D21)/(B22-B21)</f>
@@ -18476,8 +18480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7526EC-90E4-4ED3-B511-669A6F469222}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18491,7 +18495,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -18514,7 +18518,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>34</v>
@@ -18532,7 +18536,7 @@
         <v>133.20363483685219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J7</f>
@@ -18542,7 +18546,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G3" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -18562,17 +18566,17 @@
         <v>258.08333333333331</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D4" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J12+0.2</f>
         <v>0.66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G4" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -18666,7 +18670,7 @@
     <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -18683,7 +18687,7 @@
         <v>33</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G20" s="14" t="s">
         <v>34</v>
@@ -18701,17 +18705,17 @@
         <v>177.8608228100492</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D21" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J4</f>
         <v>0.06</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G21" s="12">
         <f>(D22-D21)/(B22-B21)</f>
@@ -18731,17 +18735,17 @@
         <v>306</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D22" s="4">
         <f>D21*3</f>
         <v>0.18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G22" s="12">
         <f>(D22-D21)/(B22-B21)</f>
@@ -18841,8 +18845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FF156F-EAF4-47CE-B44E-E0D3B575F42C}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18856,7 +18860,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -18879,7 +18883,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>34</v>
@@ -18897,7 +18901,7 @@
         <v>133.20363483685219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J7</f>
@@ -18907,7 +18911,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G3" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -18927,17 +18931,17 @@
         <v>258.08333333333331</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D4" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J12+0.2</f>
         <v>0.66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G4" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -19031,7 +19035,7 @@
     <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -19048,7 +19052,7 @@
         <v>33</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G21" s="14" t="s">
         <v>34</v>
@@ -19066,17 +19070,17 @@
         <v>177.8608228100492</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D22" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J4</f>
         <v>0.06</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G22" s="12">
         <f>(D23-D22)/(B23-B22)</f>
@@ -19096,17 +19100,17 @@
         <v>306</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D23" s="4">
         <f>D22*3</f>
         <v>0.18</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G23" s="12">
         <f>(D23-D22)/(B23-B22)</f>
@@ -19203,8 +19207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F294D5A-F5A3-44BA-8960-41B8D9062567}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19224,13 +19228,13 @@
         <v>11</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>15</v>
@@ -19253,13 +19257,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>16</v>
@@ -19273,7 +19277,7 @@
         <v>9.7616279069767442E-2</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -19282,13 +19286,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>16</v>
@@ -19302,7 +19306,7 @@
         <v>9.7616279069767442E-2</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>73</v>
@@ -19319,7 +19323,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -19331,7 +19335,7 @@
         <v>1.7726100000000002E-2</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>74</v>
@@ -19342,13 +19346,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
@@ -19362,7 +19366,7 @@
         <v>-1.5330797410111396E-2</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>75</v>
@@ -19373,13 +19377,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>16</v>
@@ -19393,7 +19397,7 @@
         <v>-1.5330797410111396E-2</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>73</v>
@@ -19404,13 +19408,13 @@
         <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>43</v>
@@ -19424,7 +19428,7 @@
         <v>-0.12199636150146423</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>74</v>
@@ -19435,13 +19439,13 @@
         <v>45</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E8" s="37" t="s">
         <v>43</v>
@@ -19455,10 +19459,10 @@
         <v>-0.22866192559281698</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -19466,13 +19470,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E9" s="51" t="s">
         <v>43</v>
@@ -19486,22 +19490,22 @@
         <v>-0.22866192559281698</v>
       </c>
       <c r="H9" s="53" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I9" s="54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="60"/>
       <c r="B10" s="55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" s="55" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E10" s="55" t="s">
         <v>43</v>
@@ -19515,26 +19519,26 @@
         <v>-0.1065634133545828</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I10" s="58" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>117</v>
+        <v>79</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>113</v>
       </c>
       <c r="C11" s="48" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E11" s="48" t="s">
         <v>43</v>
@@ -19548,22 +19552,22 @@
         <v>-0.22866192559281698</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="62"/>
-      <c r="B12" s="42" t="s">
-        <v>116</v>
+      <c r="B12" s="55" t="s">
+        <v>115</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>43</v>
@@ -19577,24 +19581,24 @@
         <v>-0.1065634133545828</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="84.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>117</v>
+        <v>81</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>113</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E13" s="40" t="s">
         <v>43</v>
@@ -19608,22 +19612,22 @@
         <v>-0.22866192559281698</v>
       </c>
       <c r="H13" s="41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="64"/>
-      <c r="B14" s="42" t="s">
-        <v>116</v>
+      <c r="B14" s="55" t="s">
+        <v>115</v>
       </c>
       <c r="C14" s="42" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>43</v>
@@ -19637,10 +19641,10 @@
         <v>-0.1065634133545828</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -19658,7 +19662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92459CA0-2E6E-4344-88E5-F8C6D92FCBEB}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -19696,7 +19700,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>34</v>
@@ -19714,7 +19718,7 @@
         <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D3" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J7</f>
@@ -19724,7 +19728,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G3" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -19744,7 +19748,7 @@
         <v>271</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J12</f>
@@ -19754,7 +19758,7 @@
         <v>62</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G4" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -20195,7 +20199,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>34</v>
@@ -20212,7 +20216,7 @@
         <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D4" s="4">
         <v>0.23</v>
@@ -20221,7 +20225,7 @@
         <v>61</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G4" s="12">
         <v>1.3372093023255815E-3</v>
@@ -20238,7 +20242,7 @@
         <v>271</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D5" s="4">
         <v>0.46</v>
@@ -20247,7 +20251,7 @@
         <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G5" s="12">
         <v>1.3372093023255815E-3</v>
@@ -28808,7 +28812,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28845,7 +28849,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>34</v>
@@ -28863,7 +28867,7 @@
         <v>133.20363483685219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J7</f>
@@ -28873,7 +28877,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G3" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -28893,7 +28897,7 @@
         <v>258.08333333333331</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D4" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J12</f>
@@ -28903,7 +28907,7 @@
         <v>62</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G4" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -29094,7 +29098,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29121,7 +29125,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>34</v>
@@ -29138,7 +29142,7 @@
         <v>133.20363483685219</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D4" s="4">
         <v>0.23</v>
@@ -29147,7 +29151,7 @@
         <v>61</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G4" s="12">
         <v>1.8417725440495116E-3</v>
@@ -29164,7 +29168,7 @@
         <v>258.08333333333331</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D5" s="4">
         <v>0.46</v>
@@ -29173,7 +29177,7 @@
         <v>62</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G5" s="12">
         <v>1.8417725440495116E-3</v>
@@ -29272,7 +29276,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29309,7 +29313,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>34</v>
@@ -29327,7 +29331,7 @@
         <v>133.20363483685219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J7</f>
@@ -29337,7 +29341,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G3" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -29357,17 +29361,17 @@
         <v>258.08333333333331</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D4" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J12+0.1</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G4" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -29557,8 +29561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA3378-51EF-4F4F-99F6-BE6D77D814FF}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29595,7 +29599,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>34</v>
@@ -29613,7 +29617,7 @@
         <v>133.20363483685219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D3" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J7</f>
@@ -29623,7 +29627,7 @@
         <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G3" s="12">
         <f>(D4-D3)/(B4-B3)</f>
@@ -29643,17 +29647,17 @@
         <v>258.08333333333331</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D4" s="4">
         <f>'Datos CO2 vs IMESI 2023'!J12+0.2</f>
         <v>0.66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G4" s="12">
         <f>(D4-D3)/(B4-B3)</f>

--- a/Creación de escenarios.xlsx
+++ b/Creación de escenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emili\PycharmProjects\TesisUY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d35bde50cb2ab0d/Escritorio/Pruebas tesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C6CEEB-93F6-4440-81CE-02FA884BCB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{65C6CEEB-93F6-4440-81CE-02FA884BCB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C9DC34B-B4D3-4A20-AEB9-B76224B54137}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos CO2 vs IMESI 2023" sheetId="9" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="Escenario 8" sheetId="27" r:id="rId10"/>
     <sheet name="Escenario 9" sheetId="24" r:id="rId11"/>
     <sheet name="Escenario 10" sheetId="25" r:id="rId12"/>
+    <sheet name="Escenario 11" sheetId="29" r:id="rId13"/>
+    <sheet name="Escenario 12" sheetId="32" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="126">
   <si>
     <t>Categoría de Vehículo</t>
   </si>
@@ -615,6 +617,30 @@
       <t xml:space="preserve"> (g/km)</t>
     </r>
   </si>
+  <si>
+    <t>IMESI: Automóviles y SUV gasolina (3.000 c.c. - ∞) + 50 %</t>
+  </si>
+  <si>
+    <t>IMESI: Automóviles y SUV gasolina (0 - 1.000 c.c.) + 5 %</t>
+  </si>
+  <si>
+    <t>Automóviles y SUV. CO₂ promedio ponderado por ventas. Se eleva valor inferior de IMESI + 5% y valor superior de IMESI +50 %</t>
+  </si>
+  <si>
+    <t>Escenario 11</t>
+  </si>
+  <si>
+    <t>Escenario 12</t>
+  </si>
+  <si>
+    <t>IMESI BEV 0 %. Se varía relación lineal solo de Automóviles y SUV en relación al Escenario 8</t>
+  </si>
+  <si>
+    <t>IMESI BEV 0 %.  Relación lineal igual a Escenario 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Igual a Escenario 11 pero con elasticidad variable. </t>
+  </si>
 </sst>
 </file>
 
@@ -947,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1129,6 +1155,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3044,6 +3086,1972 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D1F4-494E-92F6-039B3DCC5A35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1475173855"/>
+        <c:axId val="1475175295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1475173855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>CO2 (g/km)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1475175295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1475175295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>IMESI</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1475173855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1203507626062871"/>
+          <c:y val="5.0319781455889438E-2"/>
+          <c:w val="0.80640806995899705"/>
+          <c:h val="0.84924270180513151"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="30"/>
+            <c:backward val="99"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Escenario 11'!$B$3:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>133.20363483685219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>258.08333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Escenario 11'!$D$3:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC18-42CA-AA25-5BEFC85CA7C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="30"/>
+            <c:backward val="133"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24033321921716308"/>
+                  <c:y val="0.23902093007604819"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Escenario 11'!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Escenario 11'!$D$8:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DC18-42CA-AA25-5BEFC85CA7C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1475173855"/>
+        <c:axId val="1475175295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1475173855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>CO2 (g/km)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1475175295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1475175295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>IMESI</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1475173855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1203507626062871"/>
+          <c:y val="5.0319781455889438E-2"/>
+          <c:w val="0.80640806995899705"/>
+          <c:h val="0.84924270180513151"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="30"/>
+            <c:backward val="99"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Escenario 11'!$B$21:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>177.8608228100492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Escenario 11'!$D$21:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8F2A-4A2E-AAA2-3A8B683D9146}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1475173855"/>
+        <c:axId val="1475175295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1475173855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>CO2 (g/km)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1475175295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1475175295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>IMESI</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1475173855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1203507626062871"/>
+          <c:y val="5.0319781455889438E-2"/>
+          <c:w val="0.80640806995899705"/>
+          <c:h val="0.84924270180513151"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="30"/>
+            <c:backward val="99"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Escenario 12'!$B$3:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>133.20363483685219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>258.08333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Escenario 12'!$D$3:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A47-47FE-B414-267058F3A5AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="30"/>
+            <c:backward val="133"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.24033321921716308"/>
+                  <c:y val="0.23902093007604819"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Escenario 12'!$B$8:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Escenario 12'!$D$8:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3A47-47FE-B414-267058F3A5AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1475173855"/>
+        <c:axId val="1475175295"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1475173855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>CO2 (g/km)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1475175295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1475175295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>IMESI</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1475173855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1203507626062871"/>
+          <c:y val="5.0319781455889438E-2"/>
+          <c:w val="0.80640806995899705"/>
+          <c:h val="0.84924270180513151"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="30"/>
+            <c:backward val="99"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Escenario 12'!$B$21:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>177.8608228100492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>306</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Escenario 12'!$D$21:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4BC2-4764-BE58-FFF29DACAAA8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9782,6 +11790,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -12682,6 +14850,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -16873,6 +21105,168 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>247651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>733426</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7D84F3-881E-4029-A67D-475C14965D33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B76B4F2-0D84-42B8-9C4E-250B68CE1F48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>247651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>733426</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6D8F36-A7F0-4208-B07B-81810EC58558}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03343654-995F-4A0A-AC09-C14D82D84E41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -18115,7 +22509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8036D19-3FC0-46D3-AEF2-2BEA12C8A4F9}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -18480,7 +22874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7526EC-90E4-4ED3-B511-669A6F469222}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -19203,12 +23597,758 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D82206-9161-4861-9C10-E891F33AC33A}">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="29">
+        <f>'Datos CO2 vs IMESI 2023'!K7</f>
+        <v>133.20363483685219</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="4">
+        <f>'Datos CO2 vs IMESI 2023'!J7+0.05</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="12">
+        <f>(D4-D3)/(B4-B3)</f>
+        <v>5.4452405650159469E-3</v>
+      </c>
+      <c r="H3" s="12">
+        <f>D3-G3*B3</f>
+        <v>-0.44532583582119889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="29">
+        <f>'Datos CO2 vs IMESI 2023'!K12</f>
+        <v>258.08333333333331</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="4">
+        <f>'Datos CO2 vs IMESI 2023'!J12+0.5</f>
+        <v>0.96</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="12">
+        <f>(D4-D3)/(B4-B3)</f>
+        <v>5.4452405650159469E-3</v>
+      </c>
+      <c r="H4" s="12">
+        <f>D4-G4*B4</f>
+        <v>-0.44532583582119889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="67"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="69"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="67"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="67"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="67"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="69"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="67"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="67"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="67"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="67"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="29">
+        <f>'Datos CO2 vs IMESI 2023'!K4</f>
+        <v>177.8608228100492</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="4">
+        <f>'Datos CO2 vs IMESI 2023'!J4</f>
+        <v>0.06</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="12">
+        <f>(D22-D21)/(B22-B21)</f>
+        <v>9.3648174298883264E-4</v>
+      </c>
+      <c r="H21" s="12">
+        <f>D21-G21*B21</f>
+        <v>-0.1065634133545828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="29">
+        <f>'Datos CO2 vs IMESI 2023'!G4</f>
+        <v>306</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="4">
+        <f>D21*3</f>
+        <v>0.18</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="12">
+        <f>(D22-D21)/(B22-B21)</f>
+        <v>9.3648174298883264E-4</v>
+      </c>
+      <c r="H22" s="12">
+        <f>D22-G22*B22</f>
+        <v>-0.1065634133545828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="17"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="17"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="17"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="17"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="17"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="17"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="17"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="17"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="17"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="17"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="17"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="17"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F648EAF1-DE17-4FCA-88D0-69726B6ABACC}">
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="29">
+        <f>'Datos CO2 vs IMESI 2023'!K7</f>
+        <v>133.20363483685219</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="4">
+        <f>'Datos CO2 vs IMESI 2023'!J7+0.05</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="12">
+        <f>(D4-D3)/(B4-B3)</f>
+        <v>5.4452405650159469E-3</v>
+      </c>
+      <c r="H3" s="12">
+        <f>D3-G3*B3</f>
+        <v>-0.44532583582119889</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="29">
+        <f>'Datos CO2 vs IMESI 2023'!K12</f>
+        <v>258.08333333333331</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="4">
+        <f>'Datos CO2 vs IMESI 2023'!J12+0.5</f>
+        <v>0.96</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="12">
+        <f>(D4-D3)/(B4-B3)</f>
+        <v>5.4452405650159469E-3</v>
+      </c>
+      <c r="H4" s="12">
+        <f>D4-G4*B4</f>
+        <v>-0.44532583582119889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="67"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="69"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="67"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="67"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="67"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="69"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="67"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="67"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="67"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="67"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="29">
+        <f>'Datos CO2 vs IMESI 2023'!K4</f>
+        <v>177.8608228100492</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="4">
+        <f>'Datos CO2 vs IMESI 2023'!J4</f>
+        <v>0.06</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="12">
+        <f>(D22-D21)/(B22-B21)</f>
+        <v>9.3648174298883264E-4</v>
+      </c>
+      <c r="H21" s="12">
+        <f>D21-G21*B21</f>
+        <v>-0.1065634133545828</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="29">
+        <f>'Datos CO2 vs IMESI 2023'!G4</f>
+        <v>306</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="4">
+        <f>D21*3</f>
+        <v>0.18</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="12">
+        <f>(D22-D21)/(B22-B21)</f>
+        <v>9.3648174298883264E-4</v>
+      </c>
+      <c r="H22" s="12">
+        <f>D22-G22*B22</f>
+        <v>-0.1065634133545828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="17"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="17"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="17"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="17"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="17"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="17"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="17"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="17"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="17"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="17"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="17"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="17"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F294D5A-F5A3-44BA-8960-41B8D9062567}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19372,7 +24512,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>42</v>
       </c>
@@ -19647,12 +24787,133 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:12" ht="120.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="52">
+        <f>'Escenario 11'!G3</f>
+        <v>5.4452405650159469E-3</v>
+      </c>
+      <c r="G15" s="52">
+        <f>'Escenario 11'!H3</f>
+        <v>-0.44532583582119889</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="54" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="60"/>
+      <c r="B16" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="56">
+        <f>'Escenario 11'!G21</f>
+        <v>9.3648174298883264E-4</v>
+      </c>
+      <c r="G16" s="56">
+        <f>'Escenario 11'!H21</f>
+        <v>-0.1065634133545828</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="52">
+        <f>'Escenario 12'!G3</f>
+        <v>5.4452405650159469E-3</v>
+      </c>
+      <c r="G17" s="52">
+        <f>'Escenario 12'!H3</f>
+        <v>-0.44532583582119889</v>
+      </c>
+      <c r="H17" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="60"/>
+      <c r="B18" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="56">
+        <f>'Escenario 8'!G21</f>
+        <v>9.3648174298883264E-4</v>
+      </c>
+      <c r="G18" s="56">
+        <f>'Escenario 8'!H21</f>
+        <v>-0.1065634133545828</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
